--- a/Fullsdecalculs.xlsx
+++ b/Fullsdecalculs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="163">
   <si>
     <t>ESTIMACIÓ DEL TEMPS</t>
   </si>
@@ -186,28 +186,37 @@
     <t>Compartir ruta visitada</t>
   </si>
   <si>
+    <t>Compartir expèriencies</t>
+  </si>
+  <si>
+    <t>Compartir Botiga</t>
+  </si>
+  <si>
     <t>Visualitzar Botiga</t>
   </si>
   <si>
-    <t>Valorar Botiga</t>
-  </si>
-  <si>
-    <t>Demanar gestions del sisyema</t>
-  </si>
-  <si>
-    <t>Afegir botiga</t>
-  </si>
-  <si>
-    <t>Editar Botiga</t>
-  </si>
-  <si>
-    <t>Eliminar Botiga</t>
-  </si>
-  <si>
-    <t>Gestionar  notícies</t>
-  </si>
-  <si>
-    <t>Gestionar  rutes temàtiques</t>
+    <t>Valorar Botigues</t>
+  </si>
+  <si>
+    <t>Demanar gestions del sistema</t>
+  </si>
+  <si>
+    <t>Administrar botigues</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>Gestionar notíces</t>
+  </si>
+  <si>
+    <t>Administrar rutes temàtiques</t>
+  </si>
+  <si>
+    <t>Llistar Botigues</t>
+  </si>
+  <si>
+    <t>Fer Auditories</t>
   </si>
   <si>
     <t>ESTIMACIÓ DEL PRESSUPOST</t>
@@ -216,66 +225,57 @@
     <t>Hores total treball</t>
   </si>
   <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>Elaboration</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Transition</t>
+  </si>
+  <si>
+    <t>Effort</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Cap de projecte</t>
+  </si>
+  <si>
+    <t>Arquitecte</t>
+  </si>
+  <si>
+    <t>Analista funcional</t>
+  </si>
+  <si>
+    <t>Analista de xarxes</t>
+  </si>
+  <si>
+    <t>Dissenyador</t>
+  </si>
+  <si>
+    <t>Administrador de Base de Dades</t>
+  </si>
+  <si>
+    <t>Programador Senior</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>STAFF</t>
+  </si>
+  <si>
     <t>Rol</t>
   </si>
   <si>
-    <t>Disciplina</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Dedicació</t>
-  </si>
-  <si>
-    <t>Factor de importancia</t>
-  </si>
-  <si>
-    <t>Model d'empresa</t>
-  </si>
-  <si>
-    <t>Arquitecte</t>
-  </si>
-  <si>
-    <t>Cap de Projecte</t>
-  </si>
-  <si>
-    <t>Requeriments</t>
-  </si>
-  <si>
-    <t>Analista de Xarxes</t>
-  </si>
-  <si>
-    <t>Analista funcional</t>
-  </si>
-  <si>
-    <t>Anàlisis i disseny</t>
-  </si>
-  <si>
-    <t>Dissenyador</t>
-  </si>
-  <si>
-    <t>Implementació</t>
-  </si>
-  <si>
-    <t>Programador Senior</t>
-  </si>
-  <si>
-    <t>Administrador de BD</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t>Cap de projecte</t>
-  </si>
-  <si>
     <t>Salari/hora</t>
   </si>
   <si>
@@ -291,24 +291,21 @@
     <t>Preu en brut</t>
   </si>
   <si>
-    <t>Analista de xarxes</t>
-  </si>
-  <si>
-    <t>Administrador de Base de Dades</t>
+    <t>Llista de costos del personal</t>
+  </si>
+  <si>
+    <t>Preu</t>
+  </si>
+  <si>
+    <t>Costos del personal</t>
+  </si>
+  <si>
+    <t>Cost del lloc de treball</t>
   </si>
   <si>
     <t>Llista de costos</t>
   </si>
   <si>
-    <t>Preu</t>
-  </si>
-  <si>
-    <t>Costos del personal</t>
-  </si>
-  <si>
-    <t>Cost del lloc de treball</t>
-  </si>
-  <si>
     <t>Cost total del personal</t>
   </si>
   <si>
@@ -330,40 +327,22 @@
     <t>Hores</t>
   </si>
   <si>
-    <t>Inception</t>
-  </si>
-  <si>
-    <t>Elaboration</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Transition</t>
-  </si>
-  <si>
-    <t>Effort</t>
-  </si>
-  <si>
-    <t>Schedule</t>
-  </si>
-  <si>
     <t>Dies Laborables</t>
   </si>
   <si>
     <t>Data Límit</t>
   </si>
   <si>
-    <t>8 de Febrer</t>
-  </si>
-  <si>
-    <t>24 de Febrer</t>
-  </si>
-  <si>
-    <t>30 de Març</t>
-  </si>
-  <si>
-    <t>13 de Abril</t>
+    <t>9 de Febrer</t>
+  </si>
+  <si>
+    <t>2 de Març</t>
+  </si>
+  <si>
+    <t>18 d'Abril</t>
+  </si>
+  <si>
+    <t>5 de Maig</t>
   </si>
   <si>
     <t>Esforç (hores)</t>
@@ -405,7 +384,7 @@
     <t>1 de Febrer</t>
   </si>
   <si>
-    <t>5 de Febrer</t>
+    <t>9  de Febrer</t>
   </si>
   <si>
     <t>- Esmentar els possibles ricos</t>
@@ -414,10 +393,13 @@
     <t>- Disenyar els casos d'ús i funcionalitats</t>
   </si>
   <si>
-    <t>- Preparació i comprobació de l'entorn de treball</t>
-  </si>
-  <si>
-    <t>- Implementar casos d'ús més important</t>
+    <t>- Preparació de l'entorn de treball</t>
+  </si>
+  <si>
+    <t>- Comprobació de l'entorn de treball</t>
+  </si>
+  <si>
+    <t>- Implementar casos d'ús més importants</t>
   </si>
   <si>
     <t>E1</t>
@@ -426,7 +408,10 @@
     <t>- Fer pla de com recollir les dades</t>
   </si>
   <si>
-    <t>16 de Febrer</t>
+    <t>10 de Febrer</t>
+  </si>
+  <si>
+    <t>19 de Febrer</t>
   </si>
   <si>
     <t xml:space="preserve">- Dissenyar l'estructura de la base de dades </t>
@@ -444,10 +429,7 @@
     <t>- Iniciar a recollir dades per veure efectivitat</t>
   </si>
   <si>
-    <t>17 de Febrer</t>
-  </si>
-  <si>
-    <t>23 de Febrer</t>
+    <t>22 de Febrer</t>
   </si>
   <si>
     <t>- Establir l'entorn de treball definitiu</t>
@@ -462,10 +444,13 @@
     <t>C1</t>
   </si>
   <si>
-    <t>-Recollir dades de manera més optimitzada</t>
-  </si>
-  <si>
-    <t>4 de Febrer</t>
+    <t>- Recollir dades de manera més optimitzada</t>
+  </si>
+  <si>
+    <t>3 de Març</t>
+  </si>
+  <si>
+    <t>16 de Març</t>
   </si>
   <si>
     <t>- Idem</t>
@@ -480,7 +465,10 @@
     <t xml:space="preserve">- Fer un seguimenta de la funcionalitat i practicitat </t>
   </si>
   <si>
-    <t>7 de Febrer</t>
+    <t>17 de Març</t>
+  </si>
+  <si>
+    <t>4 d'Abril</t>
   </si>
   <si>
     <t>-Idem</t>
@@ -492,10 +480,7 @@
     <t>- Crear una versió beta per a l'úsuari</t>
   </si>
   <si>
-    <t>17 de Març</t>
-  </si>
-  <si>
-    <t>29 de Març</t>
+    <t>5 d'Abril</t>
   </si>
   <si>
     <t xml:space="preserve"> i rol de botiguer</t>
@@ -510,7 +495,7 @@
     <t>i beneficiaris del producte</t>
   </si>
   <si>
-    <t>12 de Abril</t>
+    <t>19 d'Abril</t>
   </si>
   <si>
     <t>- Fer millores del sistema</t>
@@ -527,7 +512,7 @@
     <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0[$€]"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -594,12 +579,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="'Roboto Condensed'"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Roboto Condensed"/>
@@ -621,7 +600,7 @@
       <name val="'Roboto Condensed'"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,6 +657,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
@@ -696,8 +681,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF50963E"/>
-        <bgColor rgb="FF50963E"/>
+        <fgColor rgb="FFFFDE41"/>
+        <bgColor rgb="FFFFDE41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
       </patternFill>
     </fill>
     <fill>
@@ -708,32 +711,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDE41"/>
-        <bgColor rgb="FFFFDE41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
+        <fgColor rgb="FF50963E"/>
+        <bgColor rgb="FF50963E"/>
       </patternFill>
     </fill>
     <fill>
@@ -749,18 +746,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF50963E"/>
-      </right>
       <top/>
       <bottom/>
     </border>
@@ -812,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="181">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -911,10 +900,13 @@
     <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -923,387 +915,396 @@
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="13" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="18" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="18" fontId="9" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="18" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="19" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="9" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="20" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="14" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="18" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="18" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="14" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="14" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="1" fillId="14" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="9" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="18" fontId="9" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="18" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="19" fontId="1" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="19" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="19" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="19" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="19" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="21" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="9" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="21" fontId="9" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="21" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="22" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="22" fontId="8" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="14" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="15" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="16" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="16" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="16" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="16" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="16" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="3" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="23" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="20" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="20" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="20" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="20" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="20" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="20" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="20" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="20" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" fillId="20" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="24" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="23" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="23" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="23" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="23" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="23" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="23" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="24" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="18" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="23" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="23" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="23" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="23" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="23" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="5" fillId="23" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="2" fillId="18" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="17" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="17" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="17" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="17" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="18" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="18" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="18" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="18" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="18" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="18" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="18" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="18" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="18" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="18" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="18" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="18" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="18" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="18" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="18" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="18" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="19" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="19" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="19" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="19" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="19" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="19" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="19" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="19" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="19" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="19" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="19" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="21" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="20" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="23" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="20" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="23" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="20" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="2" fillId="20" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="21" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="20" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="20" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="20" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="20" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="20" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="20" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="20" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="20" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="23" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -1360,7 +1361,7 @@
       </c>
       <c r="D2" s="3" t="str">
         <f>E4*H4</f>
-        <v>1988.028</v>
+        <v>2636.298</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -1390,7 +1391,7 @@
       </c>
       <c r="E4" s="6" t="str">
         <f>(E6+E7)*E8*E9</f>
-        <v>88.3568</v>
+        <v>117.1688</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="5" t="s">
@@ -1421,8 +1422,8 @@
         <v>5</v>
       </c>
       <c r="E6" s="10" t="str">
-        <f>D65</f>
-        <v>80</v>
+        <f>D67</f>
+        <v>110</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="1"/>
@@ -2201,7 +2202,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="29" t="str">
-        <f t="shared" ref="D52:D64" si="3">IF(C52 = "Simple", 5, IF(C52 = "Mig", 10, 15))</f>
+        <f t="shared" ref="D52:D66" si="3">IF(C52 = "Simple", 5, IF(C52 = "Mig", 10, 15))</f>
         <v>5</v>
       </c>
       <c r="E52" s="1"/>
@@ -2230,7 +2231,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1"/>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="35" t="s">
@@ -2284,15 +2285,15 @@
     </row>
     <row r="57">
       <c r="A57" s="1"/>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="34" t="s">
-        <v>54</v>
+      <c r="C57" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="D57" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2302,10 +2303,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1"/>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="35" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="29" t="str">
@@ -2320,15 +2321,15 @@
     </row>
     <row r="59">
       <c r="A59" s="1"/>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="35" t="s">
-        <v>51</v>
+      <c r="C59" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="D59" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2341,7 +2342,7 @@
       <c r="B60" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D60" s="29" t="str">
@@ -2378,11 +2379,11 @@
         <v>62</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D62" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2393,14 +2394,14 @@
     <row r="63">
       <c r="A63" s="1"/>
       <c r="B63" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D63" s="29" t="str">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2411,7 +2412,7 @@
     <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>54</v>
@@ -2428,13 +2429,15 @@
     </row>
     <row r="65">
       <c r="A65" s="1"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="37" t="str">
-        <f>SUM(D51:D64)</f>
-        <v>80</v>
+      <c r="B65" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2444,9 +2447,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="39"/>
+      <c r="B66" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -2455,17 +2465,44 @@
     </row>
     <row r="67">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="38" t="str">
+        <f>SUM(D51:D66)</f>
+        <v>110</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="71" ht="21.0" customHeight="1"/>
-    <row r="72" ht="21.0" customHeight="1"/>
+    <row r="68">
+      <c r="A68" s="1"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="73" ht="21.0" customHeight="1"/>
+    <row r="74" ht="21.0" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2490,26 +2527,26 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
-      <c r="B2" s="42" t="s">
-        <v>66</v>
+      <c r="B2" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="C2" s="3">
-        <v>1988.028</v>
+        <v>2636.3</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2521,12 +2558,12 @@
     </row>
     <row r="3">
       <c r="A3" s="1"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2534,653 +2571,1150 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
-      <c r="B5" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="50" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="49" t="s">
+      <c r="D5" s="46" t="s">
         <v>71</v>
       </c>
+      <c r="E5" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
-      <c r="B6" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="52">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="51" t="s">
+      <c r="B6" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55">
-        <v>13.0</v>
-      </c>
+      <c r="C6" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="48">
+        <v>0.55</v>
+      </c>
+      <c r="F6" s="48">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="52">
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="56">
-        <v>0.4</v>
-      </c>
-      <c r="I7" s="55">
-        <v>18.0</v>
-      </c>
+      <c r="C7" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="48">
+        <v>0.45</v>
+      </c>
+      <c r="F7" s="48">
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="52">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="51" t="s">
+      <c r="B8" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="56">
-        <v>0.2</v>
-      </c>
-      <c r="I8" s="55">
-        <v>20.0</v>
-      </c>
+      <c r="C8" s="50" t="str">
+        <f>C2*C7</f>
+        <v>263.63</v>
+      </c>
+      <c r="D8" s="50" t="str">
+        <f>D7*C2</f>
+        <v>790.89</v>
+      </c>
+      <c r="E8" s="50" t="str">
+        <f>E7*C2</f>
+        <v>1186.335</v>
+      </c>
+      <c r="F8" s="50" t="str">
+        <f>F7*C2</f>
+        <v>395.445</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
-      <c r="B9" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="52">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="52">
-        <v>0.55</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="56">
-        <v>0.2</v>
-      </c>
-      <c r="I9" s="55">
-        <v>18.0</v>
-      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="52">
-        <v>0.8</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="55">
-        <v>13.0</v>
-      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55">
-        <v>18.0</v>
-      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="B12" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="54">
+        <v>0.19</v>
+      </c>
+      <c r="D12" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="E12" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="F12" s="54">
+        <v>0.6</v>
+      </c>
+      <c r="G12" s="44"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="59" t="str">
-        <f>SUM(I6:I11)</f>
-        <v>100</v>
-      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="B13" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="E13" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="F13" s="54" t="str">
+        <f t="shared" ref="F13:F18" si="1">0.4/6</f>
+        <v>6.67%</v>
+      </c>
+      <c r="G13" s="44"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
-      <c r="B14" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>91</v>
-      </c>
+      <c r="B14" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="54">
+        <v>0.35</v>
+      </c>
+      <c r="D14" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>6.67%</v>
+      </c>
+      <c r="G14" s="44"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="62">
-        <v>14.0</v>
-      </c>
-      <c r="D15" s="63" t="str">
-        <f>(F6*I6)/100+(F7*I7)/100+I11/100</f>
-        <v>0.242</v>
-      </c>
-      <c r="E15" s="63" t="str">
-        <f>C2*D15</f>
-        <v>481.102776</v>
-      </c>
-      <c r="F15" s="64" t="str">
-        <f t="shared" ref="F15:F22" si="1">4*E15*C15</f>
-        <v>26,942€</v>
-      </c>
-      <c r="G15" s="64" t="str">
-        <f t="shared" ref="G15:G22" si="2">F15+F15*0.4</f>
-        <v>37,718€</v>
-      </c>
+      <c r="B15" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="54">
+        <v>0.03</v>
+      </c>
+      <c r="D15" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="54">
+        <v>0.07</v>
+      </c>
+      <c r="F15" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>6.67%</v>
+      </c>
+      <c r="G15" s="44"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
-      <c r="B16" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="62">
-        <v>12.0</v>
-      </c>
-      <c r="D16" s="63" t="str">
-        <f>(D6*I6)/100</f>
-        <v>0.104</v>
-      </c>
-      <c r="E16" s="63" t="str">
-        <f>$C2*D16</f>
-        <v>206.754912</v>
-      </c>
-      <c r="F16" s="64" t="str">
+      <c r="B16" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="54">
+        <v>0.17</v>
+      </c>
+      <c r="E16" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="F16" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>9,924€</v>
-      </c>
-      <c r="G16" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>13,894€</v>
-      </c>
-      <c r="H16" s="65"/>
+        <v>6.67%</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
-      <c r="B17" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="62">
-        <v>12.0</v>
-      </c>
-      <c r="D17" s="63" t="str">
-        <f>(D9*I9)/100+(H7*I7)/100+(F8*I8)/100</f>
-        <v>0.177</v>
-      </c>
-      <c r="E17" s="63" t="str">
-        <f>$C2*D17</f>
-        <v>351.880956</v>
-      </c>
-      <c r="F17" s="64" t="str">
+      <c r="B17" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="54">
+        <v>0.03</v>
+      </c>
+      <c r="D17" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="F17" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>16,890€</v>
-      </c>
-      <c r="G17" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>23,646€</v>
-      </c>
+        <v>6.67%</v>
+      </c>
+      <c r="G17" s="44"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
-      <c r="B18" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="66">
-        <v>12.0</v>
-      </c>
-      <c r="D18" s="63" t="str">
-        <f>(D7*I7)/100+(H8*I8)/100</f>
-        <v>0.112</v>
-      </c>
-      <c r="E18" s="63" t="str">
-        <f>$C2*D18</f>
-        <v>222.659136</v>
-      </c>
-      <c r="F18" s="64" t="str">
+      <c r="B18" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="54">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="54">
+        <v>0.35</v>
+      </c>
+      <c r="F18" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>10,688€</v>
-      </c>
-      <c r="G18" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>14,963€</v>
-      </c>
+        <v>6.67%</v>
+      </c>
+      <c r="G18" s="44"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="62">
-        <v>10.0</v>
-      </c>
-      <c r="D19" s="63" t="str">
-        <f>(D8*I8)/100</f>
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="63" t="str">
-        <f>$C2*D19</f>
-        <v>198.8028</v>
-      </c>
-      <c r="F19" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>7,952€</v>
-      </c>
-      <c r="G19" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>11,133€</v>
-      </c>
+      <c r="B19" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="54">
+        <v>0.03</v>
+      </c>
+      <c r="E19" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="F19" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="44"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="66">
-        <v>10.0</v>
-      </c>
-      <c r="D20" s="63" t="str">
-        <f>(H10*I10)/100+(H9*I9)/100</f>
-        <v>0.049</v>
-      </c>
-      <c r="E20" s="63" t="str">
-        <f>$C2*D20</f>
-        <v>97.413372</v>
-      </c>
-      <c r="F20" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>3,897€</v>
-      </c>
-      <c r="G20" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5,455€</v>
-      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
-      <c r="B21" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="62">
-        <v>12.0</v>
-      </c>
-      <c r="D21" s="63" t="str">
-        <f>(F9*I9)/100+(F10*I10)/100</f>
-        <v>0.112</v>
-      </c>
-      <c r="E21" s="63" t="str">
-        <f>$C2*D21</f>
-        <v>222.659136</v>
-      </c>
-      <c r="F21" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>10,688€</v>
-      </c>
-      <c r="G21" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>14,963€</v>
-      </c>
+      <c r="B21" s="56"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
-      <c r="B22" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="62">
-        <v>6.0</v>
-      </c>
-      <c r="D22" s="63" t="str">
-        <f>(D10*I10)/100</f>
-        <v>0.104</v>
-      </c>
-      <c r="E22" s="63" t="str">
-        <f>$C2*D22</f>
-        <v>206.754912</v>
-      </c>
-      <c r="F22" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>4,962€</v>
-      </c>
-      <c r="G22" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6,947€</v>
-      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="59" t="str">
-        <f>SUM(D15:D22)</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="57"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
-      <c r="B24" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
+      <c r="B24" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="58" t="str">
+        <f t="shared" ref="C24:C31" si="2">C12*($C$2)*($C$7)</f>
+        <v>50.09</v>
+      </c>
+      <c r="D24" s="58" t="str">
+        <f t="shared" ref="D24:D31" si="3">D12*($C$2)*($D$7)</f>
+        <v>94.91</v>
+      </c>
+      <c r="E24" s="58" t="str">
+        <f t="shared" ref="E24:E31" si="4">E12*($C$2)*($E$7)</f>
+        <v>142.36</v>
+      </c>
+      <c r="F24" s="58" t="str">
+        <f t="shared" ref="F24:F31" si="5">F12*($C$2)*($F$7)</f>
+        <v>237.27</v>
+      </c>
+      <c r="G24" s="59"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
-      <c r="B25" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="64" t="str">
-        <f>sum(G15:G22)</f>
-        <v>128,719€</v>
-      </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="B25" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>26.36</v>
+      </c>
+      <c r="D25" s="58" t="str">
+        <f t="shared" si="3"/>
+        <v>118.63</v>
+      </c>
+      <c r="E25" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v>142.36</v>
+      </c>
+      <c r="F25" s="58" t="str">
+        <f t="shared" si="5"/>
+        <v>26.36</v>
+      </c>
+      <c r="G25" s="59"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
-      <c r="B26" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="68" t="str">
-        <f>200*8</f>
-        <v>1,600€</v>
-      </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
+      <c r="B26" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>92.27</v>
+      </c>
+      <c r="D26" s="58" t="str">
+        <f t="shared" si="3"/>
+        <v>197.72</v>
+      </c>
+      <c r="E26" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v>59.32</v>
+      </c>
+      <c r="F26" s="58" t="str">
+        <f t="shared" si="5"/>
+        <v>26.36</v>
+      </c>
+      <c r="G26" s="59"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
-      <c r="B27" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="70" t="str">
-        <f>SUM(C25:C26)</f>
-        <v>130,319€</v>
-      </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
+      <c r="B27" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>7.91</v>
+      </c>
+      <c r="D27" s="58" t="str">
+        <f t="shared" si="3"/>
+        <v>79.09</v>
+      </c>
+      <c r="E27" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v>83.04</v>
+      </c>
+      <c r="F27" s="58" t="str">
+        <f t="shared" si="5"/>
+        <v>26.36</v>
+      </c>
+      <c r="G27" s="59"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
-      <c r="B28" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="70" t="str">
-        <f>(C27*0.15)</f>
-        <v>19,548€</v>
-      </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
+      <c r="B28" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>79.09</v>
+      </c>
+      <c r="D28" s="58" t="str">
+        <f t="shared" si="3"/>
+        <v>134.45</v>
+      </c>
+      <c r="E28" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v>59.32</v>
+      </c>
+      <c r="F28" s="58" t="str">
+        <f t="shared" si="5"/>
+        <v>26.36</v>
+      </c>
+      <c r="G28" s="59"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="70" t="str">
-        <f>((C27+C28)*0.4)</f>
-        <v>59,947€</v>
-      </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="B29" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>7.91</v>
+      </c>
+      <c r="D29" s="58" t="str">
+        <f t="shared" si="3"/>
+        <v>79.09</v>
+      </c>
+      <c r="E29" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v>142.36</v>
+      </c>
+      <c r="F29" s="58" t="str">
+        <f t="shared" si="5"/>
+        <v>26.36</v>
+      </c>
+      <c r="G29" s="59"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
-      <c r="B30" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="70" t="str">
-        <f>(C29+C27+C28)*0.1</f>
-        <v>20,981€</v>
-      </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
+      <c r="B30" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>0.00</v>
+      </c>
+      <c r="D30" s="58" t="str">
+        <f t="shared" si="3"/>
+        <v>63.27</v>
+      </c>
+      <c r="E30" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v>415.22</v>
+      </c>
+      <c r="F30" s="58" t="str">
+        <f t="shared" si="5"/>
+        <v>26.36</v>
+      </c>
+      <c r="G30" s="59"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
-      <c r="B31" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="73" t="str">
-        <f>sum(C26:C30)</f>
-        <v>232,395€</v>
-      </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
+      <c r="B31" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>0.00</v>
+      </c>
+      <c r="D31" s="58" t="str">
+        <f t="shared" si="3"/>
+        <v>23.73</v>
+      </c>
+      <c r="E31" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v>142.36</v>
+      </c>
+      <c r="F31" s="58" t="str">
+        <f t="shared" si="5"/>
+        <v>0.00</v>
+      </c>
+      <c r="G31" s="59"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="44"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="44"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1"/>
+      <c r="B34" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="62" t="str">
+        <f t="shared" ref="C34:F34" si="6">SUM(C24:C31)/($C$2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="E34" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>0.45</v>
+      </c>
+      <c r="F34" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="G34" s="44"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1"/>
+      <c r="B38" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1"/>
+      <c r="B39" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="65">
+        <v>14.0</v>
+      </c>
+      <c r="D39" s="66" t="str">
+        <f>(C7*(C12)+D7*D12+E7*E12+F7*F12)</f>
+        <v>20%</v>
+      </c>
+      <c r="E39" s="67" t="str">
+        <f>C2*D39</f>
+        <v>524.6237</v>
+      </c>
+      <c r="F39" s="68" t="str">
+        <f t="shared" ref="F39:F46" si="7">4*E39*C39</f>
+        <v>29,379€</v>
+      </c>
+      <c r="G39" s="68" t="str">
+        <f t="shared" ref="G39:G46" si="8">F39+F39*0.4</f>
+        <v>41,130€</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1"/>
+      <c r="B40" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="65">
+        <v>12.0</v>
+      </c>
+      <c r="D40" s="66" t="str">
+        <f>(C7*(C13)+D7*D13+E7*E13+F7*F13)</f>
+        <v>12%</v>
+      </c>
+      <c r="E40" s="67" t="str">
+        <f>$C2*D40</f>
+        <v>313.7197</v>
+      </c>
+      <c r="F40" s="68" t="str">
+        <f t="shared" si="7"/>
+        <v>15,059€</v>
+      </c>
+      <c r="G40" s="68" t="str">
+        <f t="shared" si="8"/>
+        <v>21,082€</v>
+      </c>
+      <c r="H40" s="69"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1"/>
+      <c r="B41" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="65">
+        <v>12.0</v>
+      </c>
+      <c r="D41" s="66" t="str">
+        <f>(C7*(C14)+D7*D14+E7*E14+F7*F14)</f>
+        <v>14%</v>
+      </c>
+      <c r="E41" s="67" t="str">
+        <f>$C2*D41</f>
+        <v>375.67275</v>
+      </c>
+      <c r="F41" s="68" t="str">
+        <f t="shared" si="7"/>
+        <v>18,032€</v>
+      </c>
+      <c r="G41" s="68" t="str">
+        <f t="shared" si="8"/>
+        <v>25,245€</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1"/>
+      <c r="B42" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="70">
+        <v>12.0</v>
+      </c>
+      <c r="D42" s="66" t="str">
+        <f>(C7*(C15)+D7*D15+E7*E15+F7*F15)</f>
+        <v>7%</v>
+      </c>
+      <c r="E42" s="67" t="str">
+        <f>$C2*D42</f>
+        <v>196.40435</v>
+      </c>
+      <c r="F42" s="68" t="str">
+        <f t="shared" si="7"/>
+        <v>9,427€</v>
+      </c>
+      <c r="G42" s="68" t="str">
+        <f t="shared" si="8"/>
+        <v>13,198€</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1"/>
+      <c r="B43" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="65">
+        <v>10.0</v>
+      </c>
+      <c r="D43" s="66" t="str">
+        <f>(C7*(C16)+D7*D16+E7*E16+F7*F16)</f>
+        <v>11%</v>
+      </c>
+      <c r="E43" s="67" t="str">
+        <f>$C2*D43</f>
+        <v>299.22005</v>
+      </c>
+      <c r="F43" s="68" t="str">
+        <f t="shared" si="7"/>
+        <v>11,969€</v>
+      </c>
+      <c r="G43" s="68" t="str">
+        <f t="shared" si="8"/>
+        <v>16,756€</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1"/>
+      <c r="B44" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="70">
+        <v>10.0</v>
+      </c>
+      <c r="D44" s="66" t="str">
+        <f>(C7*(C17)+D7*D17+E7*E17+F7*F17)</f>
+        <v>10%</v>
+      </c>
+      <c r="E44" s="67" t="str">
+        <f>$C2*D44</f>
+        <v>255.7211</v>
+      </c>
+      <c r="F44" s="68" t="str">
+        <f t="shared" si="7"/>
+        <v>10,229€</v>
+      </c>
+      <c r="G44" s="68" t="str">
+        <f t="shared" si="8"/>
+        <v>14,320€</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1"/>
+      <c r="B45" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="65">
+        <v>12.0</v>
+      </c>
+      <c r="D45" s="66" t="str">
+        <f>(C7*(C18)+D7*D18+E7*E18+F7*F18)</f>
+        <v>19%</v>
+      </c>
+      <c r="E45" s="67" t="str">
+        <f>$C2*D45</f>
+        <v>504.85145</v>
+      </c>
+      <c r="F45" s="68" t="str">
+        <f t="shared" si="7"/>
+        <v>24,233€</v>
+      </c>
+      <c r="G45" s="68" t="str">
+        <f t="shared" si="8"/>
+        <v>33,926€</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1"/>
+      <c r="B46" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="65">
+        <v>6.0</v>
+      </c>
+      <c r="D46" s="66" t="str">
+        <f>(C7*(C19)+D7*D19+E7*E19+F7*F19)</f>
+        <v>6%</v>
+      </c>
+      <c r="E46" s="67" t="str">
+        <f>$C2*D46</f>
+        <v>166.0869</v>
+      </c>
+      <c r="F46" s="68" t="str">
+        <f t="shared" si="7"/>
+        <v>3,986€</v>
+      </c>
+      <c r="G46" s="68" t="str">
+        <f t="shared" si="8"/>
+        <v>5,581€</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="71" t="str">
+        <f>SUM(D39:D46)</f>
+        <v>100%</v>
+      </c>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1"/>
+      <c r="B48" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="75"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1"/>
+      <c r="B49" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="68" t="str">
+        <f>sum(G39:G44)+G45*2+G46*6</f>
+        <v>233,068€</v>
+      </c>
+      <c r="D49" s="75"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1"/>
+      <c r="B50" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="78" t="str">
+        <f>200*14</f>
+        <v>2,800€</v>
+      </c>
+      <c r="D50" s="75"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1"/>
+      <c r="B53" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="75"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1"/>
+      <c r="B54" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="80" t="str">
+        <f>SUM(C49:C50)</f>
+        <v>235,868€</v>
+      </c>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1"/>
+      <c r="B55" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="80" t="str">
+        <f>(C54*0.15)</f>
+        <v>35,380€</v>
+      </c>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1"/>
+      <c r="B56" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="80" t="str">
+        <f>((C54+C55)*0.4)</f>
+        <v>108,499€</v>
+      </c>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1"/>
+      <c r="B57" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="80" t="str">
+        <f>(C56+C54+C55)*0.1</f>
+        <v>37,975€</v>
+      </c>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1"/>
+      <c r="B58" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="83" t="str">
+        <f>sum(C54:C57)</f>
+        <v>417,722€</v>
+      </c>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3215,31 +3749,31 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
-      <c r="B3" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="77">
-        <v>1988.028</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="B3" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2636.3</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3267,20 +3801,20 @@
     </row>
     <row r="5">
       <c r="A5" s="1"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="80"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="87"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -3290,22 +3824,22 @@
     </row>
     <row r="6">
       <c r="A6" s="1"/>
-      <c r="B6" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="82">
+      <c r="B6" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="48">
         <v>0.2</v>
       </c>
-      <c r="E6" s="82">
+      <c r="D6" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="48">
         <v>0.35</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="48">
         <v>0.25</v>
       </c>
-      <c r="G6" s="80"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3315,22 +3849,22 @@
     </row>
     <row r="7">
       <c r="A7" s="1"/>
-      <c r="B7" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="82">
+      <c r="B7" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="48">
         <v>0.1</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="48">
         <v>0.25</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="48">
         <v>0.45</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="48">
         <v>0.2</v>
       </c>
-      <c r="G7" s="80"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3340,12 +3874,12 @@
     </row>
     <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3370,18 +3904,18 @@
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="79" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="79" t="s">
-        <v>108</v>
+      <c r="B10" s="88"/>
+      <c r="C10" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>73</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3393,24 +3927,24 @@
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="84" t="str">
+      <c r="B11" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="89" t="str">
         <f t="shared" ref="C11:F11" si="1">(C13/5)/8</f>
-        <v>5</v>
-      </c>
-      <c r="D11" s="84" t="str">
+        <v>7</v>
+      </c>
+      <c r="D11" s="89" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="E11" s="84" t="str">
+        <v>16</v>
+      </c>
+      <c r="E11" s="89" t="str">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="F11" s="84" t="str">
+        <v>30</v>
+      </c>
+      <c r="F11" s="89" t="str">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3422,20 +3956,20 @@
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="85" t="s">
-        <v>116</v>
+      <c r="B12" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>109</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3447,24 +3981,24 @@
     </row>
     <row r="13">
       <c r="A13" s="1"/>
-      <c r="B13" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="86" t="str">
+      <c r="B13" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="91" t="str">
         <f>(C3*C7)</f>
-        <v>198.8028</v>
-      </c>
-      <c r="D13" s="86" t="str">
+        <v>263.63</v>
+      </c>
+      <c r="D13" s="91" t="str">
         <f>(D7*C3)</f>
-        <v>497.007</v>
-      </c>
-      <c r="E13" s="86" t="str">
+        <v>659.075</v>
+      </c>
+      <c r="E13" s="91" t="str">
         <f>(E7*C3)</f>
-        <v>894.6126</v>
-      </c>
-      <c r="F13" s="86" t="str">
+        <v>1186.335</v>
+      </c>
+      <c r="F13" s="91" t="str">
         <f>(F7*C3)</f>
-        <v>397.6056</v>
+        <v>527.26</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3521,47 +4055,47 @@
     </row>
     <row r="17">
       <c r="A17" s="1"/>
-      <c r="B17" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="79" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="79"/>
-      <c r="K17" s="65"/>
+      <c r="B17" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="69"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="90" t="s">
-        <v>104</v>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="95" t="s">
+        <v>103</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3569,565 +4103,567 @@
     </row>
     <row r="19" ht="18.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="105"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="100"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="100"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="105"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" ht="17.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="93" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="98" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" s="97"/>
-      <c r="J21" s="101"/>
+      <c r="B21" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="100"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="102"/>
+      <c r="J21" s="106"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" ht="9.0" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="100"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="105"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" ht="5.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="106" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="100"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="105"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" ht="15.0" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="109" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="110"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="115"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="105"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" ht="17.25" customHeight="1">
+    <row r="25" ht="15.0" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="124"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="115"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="120"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" ht="17.25" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="117" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="118" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="119"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="126" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="127" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="123"/>
-      <c r="J26" s="124"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="124"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="118" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="124"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="123" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="124"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="131" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="132" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="128"/>
+      <c r="J27" s="129"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
-      <c r="B28" s="125" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="130" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="124"/>
+      <c r="F28" s="125"/>
       <c r="G28" s="133"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="136"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="129"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="138" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="119"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
+      <c r="B29" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="136"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="141"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="117" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="138" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="119"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="126" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" s="127" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="143" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="124"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="138" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="119"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="124"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="143" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="124"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="132" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="143" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="124"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="136"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="131"/>
       <c r="H33" s="132"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1"/>
-      <c r="B34" s="141"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="143" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="144"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="141"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="1"/>
-      <c r="B35" s="141"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="143" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="144"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="148" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="149"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="153"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="141"/>
-      <c r="C36" s="149" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="143" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="144"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="150" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="151" t="s">
-        <v>150</v>
-      </c>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="148" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="149"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
-      <c r="B37" s="141"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="154" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="149"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="155" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" s="156" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
-      <c r="B38" s="141"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
+      <c r="B38" s="146"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
-      <c r="B39" s="141"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="157" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="144"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="161"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="141" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="149" t="s">
-        <v>153</v>
-      </c>
-      <c r="D40" s="143" t="s">
-        <v>154</v>
-      </c>
-      <c r="E40" s="144"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="150" t="s">
-        <v>155</v>
-      </c>
-      <c r="H40" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="148" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="149"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="153"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="B41" s="141"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="155"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
+      <c r="B41" s="146" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="154" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="148" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="149"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="156" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="153"/>
+      <c r="J41" s="153"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
-      <c r="B42" s="141"/>
-      <c r="C42" s="142"/>
-      <c r="D42" s="143" t="s">
-        <v>156</v>
-      </c>
-      <c r="E42" s="144"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="148"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
-      <c r="B43" s="141"/>
-      <c r="C43" s="149" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" s="143" t="s">
-        <v>158</v>
-      </c>
-      <c r="E43" s="144"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="150" t="s">
-        <v>159</v>
-      </c>
-      <c r="H43" s="151" t="s">
-        <v>160</v>
-      </c>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="148" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="149"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="153"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
-      <c r="B44" s="141"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="159" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" s="154"/>
-      <c r="F44" s="155"/>
-      <c r="G44" s="156"/>
-      <c r="H44" s="155"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="156"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="154" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="148" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="149"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="155" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" s="156" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="153"/>
+      <c r="J44" s="153"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
-      <c r="B45" s="160"/>
-      <c r="C45" s="161"/>
-      <c r="D45" s="162" t="s">
-        <v>162</v>
-      </c>
-      <c r="E45" s="163"/>
-      <c r="F45" s="164"/>
-      <c r="G45" s="165"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="166"/>
-      <c r="J45" s="165"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="163" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="159"/>
+      <c r="F45" s="160"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="160"/>
+      <c r="I45" s="161"/>
+      <c r="J45" s="161"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
-      <c r="B46" s="167" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="168" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="162" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" s="163"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="169" t="s">
-        <v>115</v>
-      </c>
-      <c r="H46" s="170" t="s">
-        <v>165</v>
-      </c>
-      <c r="I46" s="166"/>
-      <c r="J46" s="165"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="167"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="169"/>
+      <c r="H46" s="168"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="169"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="162" t="s">
-        <v>166</v>
-      </c>
-      <c r="E47" s="163"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="169"/>
-      <c r="H47" s="170"/>
-      <c r="I47" s="166"/>
-      <c r="J47" s="165"/>
+      <c r="B47" s="171" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="172" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="166" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="167"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="173" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="174" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" s="170"/>
+      <c r="J47" s="169"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
-      <c r="B48" s="160"/>
-      <c r="C48" s="171"/>
-      <c r="D48" s="172" t="s">
-        <v>167</v>
-      </c>
-      <c r="E48" s="173"/>
-      <c r="F48" s="174"/>
-      <c r="G48" s="175"/>
+      <c r="B48" s="171"/>
+      <c r="C48" s="172"/>
+      <c r="D48" s="166" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="167"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="173"/>
       <c r="H48" s="174"/>
-      <c r="I48" s="176"/>
-      <c r="J48" s="175"/>
+      <c r="I48" s="170"/>
+      <c r="J48" s="169"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="175"/>
+      <c r="D49" s="176" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="177"/>
+      <c r="F49" s="178"/>
+      <c r="G49" s="179"/>
+      <c r="H49" s="178"/>
+      <c r="I49" s="180"/>
+      <c r="J49" s="179"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -4207,6 +4743,21 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
+    <row r="55">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Fullsdecalculs.xlsx
+++ b/Fullsdecalculs.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\UNI\Q6\gps-up-11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="7380"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Temps" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Pressupost" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Pla de fases" sheetId="3" r:id="rId5"/>
+    <sheet name="Temps" sheetId="1" r:id="rId1"/>
+    <sheet name="Pressupost" sheetId="2" r:id="rId2"/>
+    <sheet name="Pla de fases" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="164">
   <si>
     <t>ESTIMACIÓ DEL TEMPS</t>
   </si>
@@ -502,110 +510,161 @@
   </si>
   <si>
     <t>- Entregar client</t>
+  </si>
+  <si>
+    <t>Columna1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0[$€]"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="26">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <name val="Roboto Condensed"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <name val="Roboto Condensed"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Roboto Condensed"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Roboto Condensed"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Roboto Condensed"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Roboto Condensed"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Roboto Condensed"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF9900"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Roboto Condensed"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto Condensed"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="Roboto Condensed"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="'Roboto Condensed'"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Roboto Condensed"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -627,38 +686,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3D85C6"/>
-        <bgColor rgb="FF3D85C6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFC9DAF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3C78D8"/>
-        <bgColor rgb="FF3C78D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7B7B7"/>
-        <bgColor rgb="FFB7B7B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9FC5E8"/>
-        <bgColor rgb="FF9FC5E8"/>
       </patternFill>
     </fill>
     <fill>
@@ -723,12 +752,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF50963E"/>
         <bgColor rgb="FF50963E"/>
       </patternFill>
@@ -745,6 +768,12 @@
         <bgColor rgb="FFBF9000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -752,6 +781,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -760,6 +790,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -770,6 +801,7 @@
         <color rgb="FFBF9000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -778,6 +810,7 @@
         <color rgb="FFBF9000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -788,6 +821,7 @@
       <bottom style="thin">
         <color rgb="FFBF9000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -796,551 +830,2616 @@
       <bottom style="thin">
         <color rgb="FFBF9000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+  <cellXfs count="159">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="165" fontId="8" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="1" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="11" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="11" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="11" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="11" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="11" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="9" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="20" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="9" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="1" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="19" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="19" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="21" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="21" fontId="9" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="21" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="22" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="22" fontId="8" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="14" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="1" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="16" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="16" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="16" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="16" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="15" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="15" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="23" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="20" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="20" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="20" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="20" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="20" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="20" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="20" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="20" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="20" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="24" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="23" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="23" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="23" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="23" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="23" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="23" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="24" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="23" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="23" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="23" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="23" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="23" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="23" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="4" fillId="23" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="23" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="23" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="B13:E25" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="B13:E25"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Descripció" dataDxfId="17"/>
+    <tableColumn id="2" name="Pes" dataDxfId="16"/>
+    <tableColumn id="3" name="Prioritat" dataDxfId="15"/>
+    <tableColumn id="4" name="Pes Ponderat" dataDxfId="14">
+      <calculatedColumnFormula>C14*D14</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="B11:F19" totalsRowShown="0" headerRowDxfId="48" dataDxfId="42">
+  <autoFilter ref="B11:F19"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Rol" dataDxfId="47"/>
+    <tableColumn id="2" name="Inception" dataDxfId="46"/>
+    <tableColumn id="3" name="Elaboration" dataDxfId="45"/>
+    <tableColumn id="4" name="Construction" dataDxfId="44"/>
+    <tableColumn id="5" name="Transition" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="B5:F7" totalsRowShown="0" headerRowDxfId="60" dataDxfId="36">
+  <autoFilter ref="B5:F7"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Columna1" dataDxfId="41"/>
+    <tableColumn id="2" name="Inception" dataDxfId="40"/>
+    <tableColumn id="3" name="Elaboration" dataDxfId="39"/>
+    <tableColumn id="4" name="Construction" dataDxfId="38"/>
+    <tableColumn id="5" name="Transition" dataDxfId="37"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B5:F7" totalsRowShown="0" headerRowDxfId="62" dataDxfId="25">
+  <autoFilter ref="B5:F7"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Columna1" dataDxfId="30"/>
+    <tableColumn id="2" name="Inception" dataDxfId="29"/>
+    <tableColumn id="3" name="Elaboration" dataDxfId="28"/>
+    <tableColumn id="4" name="Construction" dataDxfId="27"/>
+    <tableColumn id="5" name="Transition" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="B10:F13" totalsRowShown="0" headerRowDxfId="61" dataDxfId="19">
+  <autoFilter ref="B10:F13"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Columna1" dataDxfId="24"/>
+    <tableColumn id="2" name="Inception" dataDxfId="23"/>
+    <tableColumn id="3" name="Elaboration" dataDxfId="22"/>
+    <tableColumn id="4" name="Construction" dataDxfId="21"/>
+    <tableColumn id="5" name="Transition" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="B29:E37" totalsRowShown="0" headerRowDxfId="13" dataDxfId="8">
+  <autoFilter ref="B29:E37"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Factor d'Entorn" dataDxfId="12"/>
+    <tableColumn id="2" name="Pes" dataDxfId="11"/>
+    <tableColumn id="3" name="Avaluació" dataDxfId="10"/>
+    <tableColumn id="4" name="Pes Final" dataDxfId="9">
+      <calculatedColumnFormula>(C30*D30)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla12" displayName="Tabla12" ref="B41:C47" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+  <autoFilter ref="B41:C47"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Actor" dataDxfId="7"/>
+    <tableColumn id="2" name="Pes UAW" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="B51:D66" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B51:D66"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Casos d'ús" dataDxfId="3"/>
+    <tableColumn id="2" name="Complexitat" dataDxfId="2"/>
+    <tableColumn id="3" name="Pes" dataDxfId="1">
+      <calculatedColumnFormula>IF(C52 = "Simple", 5, IF(C52 = "Mig", 10, 15))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B38:G46" totalsRowShown="0" headerRowDxfId="51" dataDxfId="52">
+  <autoFilter ref="B38:G46"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Rol" dataDxfId="33"/>
+    <tableColumn id="2" name="Salari/hora" dataDxfId="31"/>
+    <tableColumn id="3" name="Factor de treball" dataDxfId="32"/>
+    <tableColumn id="4" name="Hores de treball" dataDxfId="71"/>
+    <tableColumn id="5" name="Preu en net" dataDxfId="70">
+      <calculatedColumnFormula>4*E39*C39</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Preu en brut" dataDxfId="69">
+      <calculatedColumnFormula>F39+F39*0.4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B48:C50" totalsRowShown="0" headerRowDxfId="49" dataDxfId="66">
+  <autoFilter ref="B48:C50"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Llista de costos del personal" dataDxfId="68"/>
+    <tableColumn id="2" name="Preu" dataDxfId="67">
+      <calculatedColumnFormula>200*14</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B53:C57" totalsRowShown="0" headerRowDxfId="50" dataDxfId="63">
+  <autoFilter ref="B53:C57"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Llista de costos" dataDxfId="65"/>
+    <tableColumn id="2" name="Preu" dataDxfId="64"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B23:F31" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+  <autoFilter ref="B23:F31"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Rol" dataDxfId="34"/>
+    <tableColumn id="2" name="Inception" dataDxfId="35">
+      <calculatedColumnFormula>C12*($C$2)*($C$7)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Elaboration" dataDxfId="76">
+      <calculatedColumnFormula>D12*($C$2)*($D$7)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Construction" dataDxfId="75">
+      <calculatedColumnFormula>E12*($C$2)*($E$7)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Transition" dataDxfId="74">
+      <calculatedColumnFormula>F12*($C$2)*($F$7)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B33:F34" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+  <autoFilter ref="B33:F34"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Columna1" dataDxfId="59"/>
+    <tableColumn id="2" name="Inception" dataDxfId="58">
+      <calculatedColumnFormula>SUM(C24:C31)/($C$2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Elaboration" dataDxfId="57">
+      <calculatedColumnFormula>SUM(D24:D31)/($C$2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Construction" dataDxfId="56">
+      <calculatedColumnFormula>SUM(E24:E31)/($C$2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Transition" dataDxfId="55">
+      <calculatedColumnFormula>SUM(F24:F31)/($C$2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Personalizado 5">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="92D050"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="38.14"/>
-    <col customWidth="1" min="3" max="3" width="18.43"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="7" max="7" width="18.71"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="12.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1351,7 +3450,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="31.5" customHeight="1">
+    <row r="2" spans="1:9" ht="31.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1359,9 +3458,9 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="3">
         <f>E4*H4</f>
-        <v>2636.298</v>
+        <v>2636.2980000000002</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -1371,7 +3470,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="8.25" customHeight="1">
+    <row r="3" spans="1:9" ht="8.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1382,14 +3481,14 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" ht="25.5" customHeight="1">
+    <row r="4" spans="1:9" ht="25.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="str">
+      <c r="E4" s="157">
         <f>(E6+E7)*E8*E9</f>
         <v>117.1688</v>
       </c>
@@ -1397,47 +3496,47 @@
       <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="H4" s="6">
         <f>15/2+15</f>
         <v>22.5</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" ht="6.75" customHeight="1">
+    <row r="5" spans="1:9" ht="6.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="12.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="str">
+      <c r="E6" s="9">
         <f>D67</f>
         <v>110</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="12.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="158"/>
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="str">
+      <c r="E7" s="9">
         <f>(C48)</f>
         <v>12</v>
       </c>
@@ -1446,14 +3545,14 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="12.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="10" t="str">
+      <c r="E8" s="9">
         <f>E26</f>
         <v>0.98</v>
       </c>
@@ -1462,14 +3561,14 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="12.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10" t="str">
+      <c r="E9" s="9">
         <f>E38</f>
         <v>0.98</v>
       </c>
@@ -1478,7 +3577,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="12.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1489,7 +3588,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="12.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1500,31 +3599,31 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" ht="21.0" customHeight="1">
+    <row r="12" spans="1:9" ht="21" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="146" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="1"/>
@@ -1532,19 +3631,19 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="1"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="E14" s="18" t="str">
-        <f t="shared" ref="E14:E25" si="1">C14*D14</f>
+      <c r="C14" s="133">
+        <v>1</v>
+      </c>
+      <c r="D14" s="133">
+        <v>5</v>
+      </c>
+      <c r="E14" s="133">
+        <f t="shared" ref="E14:E25" si="0">C14*D14</f>
         <v>5</v>
       </c>
       <c r="F14" s="1"/>
@@ -1552,19 +3651,19 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="E15" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="C15" s="133">
+        <v>2</v>
+      </c>
+      <c r="D15" s="133">
+        <v>3</v>
+      </c>
+      <c r="E15" s="133">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F15" s="1"/>
@@ -1572,19 +3671,19 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="1"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="E16" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="C16" s="133">
+        <v>2</v>
+      </c>
+      <c r="D16" s="133">
+        <v>5</v>
+      </c>
+      <c r="E16" s="133">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F16" s="1"/>
@@ -1592,19 +3691,19 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="1"/>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="133">
         <v>0.5</v>
       </c>
-      <c r="D17" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="D17" s="133">
+        <v>1</v>
+      </c>
+      <c r="E17" s="133">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F17" s="1"/>
@@ -1612,19 +3711,19 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="1"/>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="E18" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="C18" s="133">
+        <v>1</v>
+      </c>
+      <c r="D18" s="133">
+        <v>4</v>
+      </c>
+      <c r="E18" s="133">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F18" s="1"/>
@@ -1632,19 +3731,19 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="1"/>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="16">
-        <v>-1.0</v>
-      </c>
-      <c r="D19" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="E19" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="C19" s="133">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="133">
+        <v>5</v>
+      </c>
+      <c r="E19" s="133">
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="F19" s="1"/>
@@ -1652,19 +3751,19 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="1"/>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="133">
         <v>0.5</v>
       </c>
-      <c r="D20" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="E20" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="D20" s="133">
+        <v>5</v>
+      </c>
+      <c r="E20" s="133">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="F20" s="1"/>
@@ -1672,19 +3771,19 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="1"/>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="133">
         <v>0.5</v>
       </c>
-      <c r="D21" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="E21" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="D21" s="133">
+        <v>4</v>
+      </c>
+      <c r="E21" s="133">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F21" s="1"/>
@@ -1692,19 +3791,19 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="1"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="E22" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="C22" s="133">
+        <v>2</v>
+      </c>
+      <c r="D22" s="133">
+        <v>3</v>
+      </c>
+      <c r="E22" s="133">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F22" s="1"/>
@@ -1712,19 +3811,19 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="1"/>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="E23" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="C23" s="133">
+        <v>1</v>
+      </c>
+      <c r="D23" s="133">
+        <v>5</v>
+      </c>
+      <c r="E23" s="133">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F23" s="1"/>
@@ -1732,19 +3831,19 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="1"/>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="E24" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="C24" s="133">
+        <v>1</v>
+      </c>
+      <c r="D24" s="133">
+        <v>5</v>
+      </c>
+      <c r="E24" s="133">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F24" s="1"/>
@@ -1752,19 +3851,19 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="1"/>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="16">
-        <v>-1.0</v>
-      </c>
-      <c r="D25" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="E25" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="C25" s="133">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="133">
+        <v>3</v>
+      </c>
+      <c r="E25" s="133">
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="F25" s="1"/>
@@ -1772,14 +3871,14 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="21" t="str">
+      <c r="E26" s="153">
         <f>0.6+SUM(E13:E25)/100</f>
         <v>0.98</v>
       </c>
@@ -1788,7 +3887,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" ht="12.75">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1799,31 +3898,31 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" ht="28.5" customHeight="1">
+    <row r="28" spans="1:9" ht="28.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9">
       <c r="A29" s="1"/>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="146" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="1"/>
@@ -1831,19 +3930,19 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="1"/>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="133">
         <v>0.5</v>
       </c>
-      <c r="D30" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="E30" s="24" t="str">
-        <f t="shared" ref="E30:E37" si="2">(C30*D30)</f>
+      <c r="D30" s="133">
+        <v>3</v>
+      </c>
+      <c r="E30" s="133">
+        <f t="shared" ref="E30:E37" si="1">(C30*D30)</f>
         <v>1.5</v>
       </c>
       <c r="F30" s="1"/>
@@ -1851,19 +3950,19 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="1"/>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="16">
-        <v>-1.0</v>
-      </c>
-      <c r="D31" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="E31" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="C31" s="133">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="133">
+        <v>2</v>
+      </c>
+      <c r="E31" s="133">
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="F31" s="1"/>
@@ -1871,19 +3970,19 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="1"/>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="D32" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="E32" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="C32" s="133">
+        <v>2</v>
+      </c>
+      <c r="D32" s="133">
+        <v>3</v>
+      </c>
+      <c r="E32" s="133">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F32" s="1"/>
@@ -1891,19 +3990,19 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="1"/>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="133">
         <v>0.5</v>
       </c>
-      <c r="D33" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="E33" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="D33" s="133">
+        <v>3</v>
+      </c>
+      <c r="E33" s="133">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="F33" s="1"/>
@@ -1911,19 +4010,19 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="1"/>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="E34" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="C34" s="133">
+        <v>1</v>
+      </c>
+      <c r="D34" s="133">
+        <v>3</v>
+      </c>
+      <c r="E34" s="133">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F34" s="1"/>
@@ -1931,19 +4030,19 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="1"/>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="133">
         <v>1.5</v>
       </c>
-      <c r="D35" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="E35" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="D35" s="133">
+        <v>2</v>
+      </c>
+      <c r="E35" s="133">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F35" s="1"/>
@@ -1951,19 +4050,19 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="1"/>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="D36" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="E36" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="C36" s="133">
+        <v>1</v>
+      </c>
+      <c r="D36" s="133">
+        <v>2</v>
+      </c>
+      <c r="E36" s="133">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F36" s="1"/>
@@ -1971,19 +4070,19 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="1"/>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="16">
-        <v>-1.0</v>
-      </c>
-      <c r="D37" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="E37" s="24" t="str">
-        <f t="shared" si="2"/>
+      <c r="C37" s="133">
+        <v>-1</v>
+      </c>
+      <c r="D37" s="133">
+        <v>1</v>
+      </c>
+      <c r="E37" s="133">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="F37" s="1"/>
@@ -1991,14 +4090,14 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="1"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="26" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="27" t="str">
+      <c r="E38" s="156">
         <f>1.4+(-0.03*SUM(E30:E37))</f>
         <v>0.98</v>
       </c>
@@ -2007,7 +4106,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" ht="12.75">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2018,12 +4117,12 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" ht="28.5" customHeight="1">
+    <row r="40" spans="1:9" ht="28.5" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2031,12 +4130,12 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9">
       <c r="A41" s="1"/>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="146" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
@@ -2046,13 +4145,13 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="1"/>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="29">
-        <v>1.0</v>
+      <c r="C42" s="133">
+        <v>1</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2061,13 +4160,13 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="1"/>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="29">
-        <v>1.0</v>
+      <c r="C43" s="133">
+        <v>1</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2076,13 +4175,13 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="1"/>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="16">
-        <v>3.0</v>
+      <c r="C44" s="133">
+        <v>3</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2091,13 +4190,13 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="1"/>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="29">
-        <v>3.0</v>
+      <c r="C45" s="133">
+        <v>3</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2106,13 +4205,13 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="1"/>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="29">
-        <v>3.0</v>
+      <c r="C46" s="133">
+        <v>3</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2121,13 +4220,13 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="1"/>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="29">
-        <v>1.0</v>
+      <c r="C47" s="133">
+        <v>1</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2136,13 +4235,13 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9">
       <c r="A48" s="1"/>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="31" t="str">
-        <f>sum(C42:C47)</f>
+      <c r="C48" s="155">
+        <f>SUM(C42:C47)</f>
         <v>12</v>
       </c>
       <c r="D48" s="1"/>
@@ -2152,39 +4251,39 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" ht="14.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="33"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" ht="30.75" customHeight="1">
+    <row r="50" spans="1:9" ht="30.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:9">
       <c r="A51" s="1"/>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="146" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="1"/>
@@ -2193,16 +4292,16 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="1"/>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="29" t="str">
-        <f t="shared" ref="D52:D66" si="3">IF(C52 = "Simple", 5, IF(C52 = "Mig", 10, 15))</f>
+      <c r="D52" s="133">
+        <f t="shared" ref="D52:D66" si="2">IF(C52 = "Simple", 5, IF(C52 = "Mig", 10, 15))</f>
         <v>5</v>
       </c>
       <c r="E52" s="1"/>
@@ -2211,16 +4310,16 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="1"/>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="D53" s="133">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E53" s="1"/>
@@ -2229,16 +4328,16 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="1"/>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="D54" s="133">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E54" s="1"/>
@@ -2247,16 +4346,16 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="1"/>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="D55" s="133">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E55" s="1"/>
@@ -2265,16 +4364,16 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="1"/>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="D56" s="133">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E56" s="1"/>
@@ -2283,16 +4382,16 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="1"/>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="D57" s="133">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E57" s="1"/>
@@ -2301,16 +4400,16 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="1"/>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="D58" s="133">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E58" s="1"/>
@@ -2319,16 +4418,16 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="1"/>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="D59" s="133">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E59" s="1"/>
@@ -2337,16 +4436,16 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="1"/>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="D60" s="133">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E60" s="1"/>
@@ -2355,16 +4454,16 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="1"/>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="D61" s="133">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E61" s="1"/>
@@ -2373,16 +4472,16 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="1"/>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="D62" s="133">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="E62" s="1"/>
@@ -2391,16 +4490,16 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="1"/>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="D63" s="133">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E63" s="1"/>
@@ -2409,16 +4508,16 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="1"/>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="D64" s="133">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E64" s="1"/>
@@ -2427,16 +4526,16 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="1"/>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="D65" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="D65" s="133">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E65" s="1"/>
@@ -2445,16 +4544,16 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="1"/>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="29" t="str">
-        <f t="shared" si="3"/>
+      <c r="D66" s="133">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E66" s="1"/>
@@ -2463,13 +4562,13 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:9">
       <c r="A67" s="1"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="38" t="s">
+      <c r="B67" s="16"/>
+      <c r="C67" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="38" t="str">
+      <c r="D67" s="152">
         <f>SUM(D51:D66)</f>
         <v>110</v>
       </c>
@@ -2479,18 +4578,18 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="1"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="40"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:9" ht="12.75">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2501,48 +4600,57 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="73" ht="21.0" customHeight="1"/>
-    <row r="74" ht="21.0" customHeight="1"/>
+    <row r="73" spans="1:9" ht="21" customHeight="1"/>
+    <row r="74" spans="1:9" ht="21" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="37.14"/>
-    <col customWidth="1" min="3" max="3" width="19.43"/>
-    <col customWidth="1" min="4" max="4" width="16.0"/>
-    <col customWidth="1" min="5" max="5" width="19.0"/>
-    <col customWidth="1" min="6" max="6" width="20.43"/>
-    <col customWidth="1" min="7" max="7" width="24.0"/>
-    <col customWidth="1" min="8" max="8" width="21.86"/>
-    <col customWidth="1" min="9" max="9" width="20.43"/>
-    <col customWidth="1" min="10" max="10" width="25.86"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:10" ht="24" customHeight="1">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-    </row>
-    <row r="2">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="3">
@@ -2556,1158 +4664,1163 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="148">
         <v>0.05</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="148">
         <v>0.25</v>
       </c>
-      <c r="E6" s="48">
-        <v>0.55</v>
-      </c>
-      <c r="F6" s="48">
+      <c r="E6" s="148">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F6" s="148">
         <v>0.15</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="148">
         <v>0.1</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="148">
         <v>0.3</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="148">
         <v>0.45</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="148">
         <v>0.15</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="50" t="str">
+      <c r="C8" s="25">
         <f>C2*C7</f>
-        <v>263.63</v>
-      </c>
-      <c r="D8" s="50" t="str">
+        <v>263.63000000000005</v>
+      </c>
+      <c r="D8" s="25">
         <f>D7*C2</f>
         <v>790.89</v>
       </c>
-      <c r="E8" s="50" t="str">
+      <c r="E8" s="25">
         <f>E7*C2</f>
         <v>1186.335</v>
       </c>
-      <c r="F8" s="50" t="str">
+      <c r="F8" s="25">
         <f>F7*C2</f>
-        <v>395.445</v>
-      </c>
-      <c r="G8" s="44"/>
+        <v>395.44499999999999</v>
+      </c>
+      <c r="G8" s="22"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10">
       <c r="A11" s="1"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52" t="s">
+      <c r="B11" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="140">
         <v>0.19</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="140">
         <v>0.12</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="140">
         <v>0.12</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="140">
         <v>0.6</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="140">
         <v>0.1</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="140">
         <v>0.15</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="140">
         <v>0.12</v>
       </c>
-      <c r="F13" s="54" t="str">
-        <f t="shared" ref="F13:F18" si="1">0.4/6</f>
-        <v>6.67%</v>
-      </c>
-      <c r="G13" s="44"/>
+      <c r="F13" s="140">
+        <f t="shared" ref="F13:F18" si="0">0.4/6</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G13" s="22"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="140">
         <v>0.35</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="140">
         <v>0.25</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="140">
         <v>0.05</v>
       </c>
-      <c r="F14" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>6.67%</v>
-      </c>
-      <c r="G14" s="44"/>
+      <c r="F14" s="140">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G14" s="22"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="140">
         <v>0.03</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="140">
         <v>0.1</v>
       </c>
-      <c r="E15" s="54">
-        <v>0.07</v>
-      </c>
-      <c r="F15" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>6.67%</v>
-      </c>
-      <c r="G15" s="44"/>
+      <c r="E15" s="140">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F15" s="140">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G15" s="22"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="140">
         <v>0.3</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="140">
         <v>0.17</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="140">
         <v>0.05</v>
       </c>
-      <c r="F16" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>6.67%</v>
-      </c>
-      <c r="G16" s="44"/>
+      <c r="F16" s="140">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G16" s="22"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="140">
         <v>0.03</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="140">
         <v>0.1</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="140">
         <v>0.12</v>
       </c>
-      <c r="F17" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>6.67%</v>
-      </c>
-      <c r="G17" s="44"/>
+      <c r="F17" s="140">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G17" s="22"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="54">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="54">
+      <c r="C18" s="140">
+        <v>0</v>
+      </c>
+      <c r="D18" s="140">
         <v>0.08</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="140">
         <v>0.35</v>
       </c>
-      <c r="F18" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>6.67%</v>
-      </c>
-      <c r="G18" s="44"/>
+      <c r="F18" s="140">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G18" s="22"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="54">
-        <v>0.0</v>
-      </c>
-      <c r="D19" s="54">
+      <c r="C19" s="140">
+        <v>0</v>
+      </c>
+      <c r="D19" s="140">
         <v>0.03</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="140">
         <v>0.12</v>
       </c>
-      <c r="F19" s="54">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="44"/>
+      <c r="F19" s="140">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10">
       <c r="A23" s="1"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52" t="s">
+      <c r="B23" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="57"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="1"/>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="58" t="str">
-        <f t="shared" ref="C24:C31" si="2">C12*($C$2)*($C$7)</f>
-        <v>50.09</v>
-      </c>
-      <c r="D24" s="58" t="str">
-        <f t="shared" ref="D24:D31" si="3">D12*($C$2)*($D$7)</f>
-        <v>94.91</v>
-      </c>
-      <c r="E24" s="58" t="str">
-        <f t="shared" ref="E24:E31" si="4">E12*($C$2)*($E$7)</f>
-        <v>142.36</v>
-      </c>
-      <c r="F24" s="58" t="str">
-        <f t="shared" ref="F24:F31" si="5">F12*($C$2)*($F$7)</f>
-        <v>237.27</v>
-      </c>
-      <c r="G24" s="59"/>
+      <c r="C24" s="132">
+        <f t="shared" ref="C24:C31" si="1">C12*($C$2)*($C$7)</f>
+        <v>50.089700000000008</v>
+      </c>
+      <c r="D24" s="132">
+        <f t="shared" ref="D24:D31" si="2">D12*($C$2)*($D$7)</f>
+        <v>94.90679999999999</v>
+      </c>
+      <c r="E24" s="132">
+        <f t="shared" ref="E24:E31" si="3">E12*($C$2)*($E$7)</f>
+        <v>142.36019999999999</v>
+      </c>
+      <c r="F24" s="132">
+        <f t="shared" ref="F24:F31" si="4">F12*($C$2)*($F$7)</f>
+        <v>237.267</v>
+      </c>
+      <c r="G24" s="28"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" s="1"/>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="58" t="str">
+      <c r="C25" s="132">
+        <f t="shared" si="1"/>
+        <v>26.363000000000007</v>
+      </c>
+      <c r="D25" s="132">
         <f t="shared" si="2"/>
-        <v>26.36</v>
-      </c>
-      <c r="D25" s="58" t="str">
+        <v>118.6335</v>
+      </c>
+      <c r="E25" s="132">
         <f t="shared" si="3"/>
-        <v>118.63</v>
-      </c>
-      <c r="E25" s="58" t="str">
+        <v>142.36019999999999</v>
+      </c>
+      <c r="F25" s="132">
         <f t="shared" si="4"/>
-        <v>142.36</v>
-      </c>
-      <c r="F25" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>26.36</v>
-      </c>
-      <c r="G25" s="59"/>
+        <v>26.363</v>
+      </c>
+      <c r="G25" s="28"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" ht="15">
       <c r="A26" s="1"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="58" t="str">
+      <c r="C26" s="132">
+        <f t="shared" si="1"/>
+        <v>92.270500000000013</v>
+      </c>
+      <c r="D26" s="132">
         <f t="shared" si="2"/>
-        <v>92.27</v>
-      </c>
-      <c r="D26" s="58" t="str">
+        <v>197.7225</v>
+      </c>
+      <c r="E26" s="132">
         <f t="shared" si="3"/>
-        <v>197.72</v>
-      </c>
-      <c r="E26" s="58" t="str">
+        <v>59.316750000000013</v>
+      </c>
+      <c r="F26" s="132">
         <f t="shared" si="4"/>
-        <v>59.32</v>
-      </c>
-      <c r="F26" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>26.36</v>
-      </c>
-      <c r="G26" s="59"/>
+        <v>26.363</v>
+      </c>
+      <c r="G26" s="28"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" ht="15">
       <c r="A27" s="1"/>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="58" t="str">
+      <c r="C27" s="132">
+        <f t="shared" si="1"/>
+        <v>7.9089</v>
+      </c>
+      <c r="D27" s="132">
         <f t="shared" si="2"/>
-        <v>7.91</v>
-      </c>
-      <c r="D27" s="58" t="str">
+        <v>79.089000000000013</v>
+      </c>
+      <c r="E27" s="132">
         <f t="shared" si="3"/>
-        <v>79.09</v>
-      </c>
-      <c r="E27" s="58" t="str">
+        <v>83.043450000000007</v>
+      </c>
+      <c r="F27" s="132">
         <f t="shared" si="4"/>
-        <v>83.04</v>
-      </c>
-      <c r="F27" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>26.36</v>
-      </c>
-      <c r="G27" s="59"/>
+        <v>26.363</v>
+      </c>
+      <c r="G27" s="28"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" ht="15">
       <c r="A28" s="1"/>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="58" t="str">
+      <c r="C28" s="132">
+        <f t="shared" si="1"/>
+        <v>79.088999999999999</v>
+      </c>
+      <c r="D28" s="132">
         <f t="shared" si="2"/>
-        <v>79.09</v>
-      </c>
-      <c r="D28" s="58" t="str">
+        <v>134.4513</v>
+      </c>
+      <c r="E28" s="132">
         <f t="shared" si="3"/>
-        <v>134.45</v>
-      </c>
-      <c r="E28" s="58" t="str">
+        <v>59.316750000000013</v>
+      </c>
+      <c r="F28" s="132">
         <f t="shared" si="4"/>
-        <v>59.32</v>
-      </c>
-      <c r="F28" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>26.36</v>
-      </c>
-      <c r="G28" s="59"/>
+        <v>26.363</v>
+      </c>
+      <c r="G28" s="28"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" s="1"/>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="58" t="str">
+      <c r="C29" s="132">
+        <f t="shared" si="1"/>
+        <v>7.9089</v>
+      </c>
+      <c r="D29" s="132">
         <f t="shared" si="2"/>
-        <v>7.91</v>
-      </c>
-      <c r="D29" s="58" t="str">
+        <v>79.089000000000013</v>
+      </c>
+      <c r="E29" s="132">
         <f t="shared" si="3"/>
-        <v>79.09</v>
-      </c>
-      <c r="E29" s="58" t="str">
+        <v>142.36019999999999</v>
+      </c>
+      <c r="F29" s="132">
         <f t="shared" si="4"/>
-        <v>142.36</v>
-      </c>
-      <c r="F29" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>26.36</v>
-      </c>
-      <c r="G29" s="59"/>
+        <v>26.363</v>
+      </c>
+      <c r="G29" s="28"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="1"/>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="58" t="str">
+      <c r="C30" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="132">
         <f t="shared" si="2"/>
-        <v>0.00</v>
-      </c>
-      <c r="D30" s="58" t="str">
+        <v>63.271200000000007</v>
+      </c>
+      <c r="E30" s="132">
         <f t="shared" si="3"/>
-        <v>63.27</v>
-      </c>
-      <c r="E30" s="58" t="str">
+        <v>415.21725000000004</v>
+      </c>
+      <c r="F30" s="132">
         <f t="shared" si="4"/>
-        <v>415.22</v>
-      </c>
-      <c r="F30" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>26.36</v>
-      </c>
-      <c r="G30" s="59"/>
+        <v>26.363</v>
+      </c>
+      <c r="G30" s="28"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" s="1"/>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="58" t="str">
+      <c r="C31" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="132">
         <f t="shared" si="2"/>
-        <v>0.00</v>
-      </c>
-      <c r="D31" s="58" t="str">
+        <v>23.726699999999997</v>
+      </c>
+      <c r="E31" s="132">
         <f t="shared" si="3"/>
-        <v>23.73</v>
-      </c>
-      <c r="E31" s="58" t="str">
+        <v>142.36019999999999</v>
+      </c>
+      <c r="F31" s="132">
         <f t="shared" si="4"/>
-        <v>142.36</v>
-      </c>
-      <c r="F31" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>0.00</v>
-      </c>
-      <c r="G31" s="59"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="28"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="44"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="60" t="s">
+      <c r="B33" s="144" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="F33" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="44"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" ht="15">
       <c r="A34" s="1"/>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="62" t="str">
-        <f t="shared" ref="C34:F34" si="6">SUM(C24:C31)/($C$2)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D34" s="62" t="str">
-        <f t="shared" si="6"/>
-        <v>0.3</v>
-      </c>
-      <c r="E34" s="62" t="str">
-        <f t="shared" si="6"/>
-        <v>0.45</v>
-      </c>
-      <c r="F34" s="62" t="str">
-        <f t="shared" si="6"/>
+      <c r="C34" s="143">
+        <f t="shared" ref="C34:F34" si="5">SUM(C24:C31)/($C$2)</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="D34" s="143">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="E34" s="143">
+        <f t="shared" si="5"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F34" s="143">
+        <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
-      <c r="G34" s="44"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" ht="15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="44"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" ht="15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="44"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" ht="15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="44"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10">
       <c r="A38" s="1"/>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="64" t="s">
+      <c r="F38" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="G38" s="64" t="s">
+      <c r="G38" s="146" t="s">
         <v>91</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" ht="15">
       <c r="A39" s="1"/>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="65">
-        <v>14.0</v>
-      </c>
-      <c r="D39" s="66" t="str">
+      <c r="C39" s="149">
+        <v>14</v>
+      </c>
+      <c r="D39" s="134">
         <f>(C7*(C12)+D7*D12+E7*E12+F7*F12)</f>
-        <v>20%</v>
-      </c>
-      <c r="E39" s="67" t="str">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E39" s="135">
         <f>C2*D39</f>
-        <v>524.6237</v>
-      </c>
-      <c r="F39" s="68" t="str">
-        <f t="shared" ref="F39:F46" si="7">4*E39*C39</f>
-        <v>29,379€</v>
-      </c>
-      <c r="G39" s="68" t="str">
-        <f t="shared" ref="G39:G46" si="8">F39+F39*0.4</f>
-        <v>41,130€</v>
+        <v>524.6237000000001</v>
+      </c>
+      <c r="F39" s="136">
+        <f t="shared" ref="F39:F46" si="6">4*E39*C39</f>
+        <v>29378.927200000006</v>
+      </c>
+      <c r="G39" s="136">
+        <f t="shared" ref="G39:G46" si="7">F39+F39*0.4</f>
+        <v>41130.498080000005</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" ht="15">
       <c r="A40" s="1"/>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="65">
-        <v>12.0</v>
-      </c>
-      <c r="D40" s="66" t="str">
+      <c r="C40" s="149">
+        <v>12</v>
+      </c>
+      <c r="D40" s="134">
         <f>(C7*(C13)+D7*D13+E7*E13+F7*F13)</f>
-        <v>12%</v>
-      </c>
-      <c r="E40" s="67" t="str">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E40" s="135">
         <f>$C2*D40</f>
-        <v>313.7197</v>
-      </c>
-      <c r="F40" s="68" t="str">
+        <v>313.71969999999999</v>
+      </c>
+      <c r="F40" s="136">
+        <f t="shared" si="6"/>
+        <v>15058.545599999999</v>
+      </c>
+      <c r="G40" s="136">
         <f t="shared" si="7"/>
-        <v>15,059€</v>
-      </c>
-      <c r="G40" s="68" t="str">
-        <f t="shared" si="8"/>
-        <v>21,082€</v>
-      </c>
-      <c r="H40" s="69"/>
+        <v>21081.96384</v>
+      </c>
+      <c r="H40" s="29"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" ht="15">
       <c r="A41" s="1"/>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="65">
-        <v>12.0</v>
-      </c>
-      <c r="D41" s="66" t="str">
+      <c r="C41" s="149">
+        <v>12</v>
+      </c>
+      <c r="D41" s="134">
         <f>(C7*(C14)+D7*D14+E7*E14+F7*F14)</f>
-        <v>14%</v>
-      </c>
-      <c r="E41" s="67" t="str">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="E41" s="135">
         <f>$C2*D41</f>
-        <v>375.67275</v>
-      </c>
-      <c r="F41" s="68" t="str">
+        <v>375.67275000000001</v>
+      </c>
+      <c r="F41" s="136">
+        <f t="shared" si="6"/>
+        <v>18032.292000000001</v>
+      </c>
+      <c r="G41" s="136">
         <f t="shared" si="7"/>
-        <v>18,032€</v>
-      </c>
-      <c r="G41" s="68" t="str">
-        <f t="shared" si="8"/>
-        <v>25,245€</v>
+        <v>25245.2088</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" ht="15">
       <c r="A42" s="1"/>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="70">
-        <v>12.0</v>
-      </c>
-      <c r="D42" s="66" t="str">
+      <c r="C42" s="137">
+        <v>12</v>
+      </c>
+      <c r="D42" s="134">
         <f>(C7*(C15)+D7*D15+E7*E15+F7*F15)</f>
-        <v>7%</v>
-      </c>
-      <c r="E42" s="67" t="str">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="E42" s="135">
         <f>$C2*D42</f>
-        <v>196.40435</v>
-      </c>
-      <c r="F42" s="68" t="str">
+        <v>196.40434999999999</v>
+      </c>
+      <c r="F42" s="136">
+        <f t="shared" si="6"/>
+        <v>9427.4087999999992</v>
+      </c>
+      <c r="G42" s="136">
         <f t="shared" si="7"/>
-        <v>9,427€</v>
-      </c>
-      <c r="G42" s="68" t="str">
-        <f t="shared" si="8"/>
-        <v>13,198€</v>
+        <v>13198.372319999999</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10" ht="15">
       <c r="A43" s="1"/>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="65">
-        <v>10.0</v>
-      </c>
-      <c r="D43" s="66" t="str">
+      <c r="C43" s="149">
+        <v>10</v>
+      </c>
+      <c r="D43" s="134">
         <f>(C7*(C16)+D7*D16+E7*E16+F7*F16)</f>
-        <v>11%</v>
-      </c>
-      <c r="E43" s="67" t="str">
+        <v>0.1135</v>
+      </c>
+      <c r="E43" s="135">
         <f>$C2*D43</f>
-        <v>299.22005</v>
-      </c>
-      <c r="F43" s="68" t="str">
+        <v>299.22005000000001</v>
+      </c>
+      <c r="F43" s="136">
+        <f t="shared" si="6"/>
+        <v>11968.802</v>
+      </c>
+      <c r="G43" s="136">
         <f t="shared" si="7"/>
-        <v>11,969€</v>
-      </c>
-      <c r="G43" s="68" t="str">
-        <f t="shared" si="8"/>
-        <v>16,756€</v>
+        <v>16756.322800000002</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10" ht="15">
       <c r="A44" s="1"/>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="70">
-        <v>10.0</v>
-      </c>
-      <c r="D44" s="66" t="str">
+      <c r="C44" s="137">
+        <v>10</v>
+      </c>
+      <c r="D44" s="134">
         <f>(C7*(C17)+D7*D17+E7*E17+F7*F17)</f>
-        <v>10%</v>
-      </c>
-      <c r="E44" s="67" t="str">
+        <v>9.6999999999999989E-2</v>
+      </c>
+      <c r="E44" s="135">
         <f>$C2*D44</f>
-        <v>255.7211</v>
-      </c>
-      <c r="F44" s="68" t="str">
+        <v>255.72109999999998</v>
+      </c>
+      <c r="F44" s="136">
+        <f t="shared" si="6"/>
+        <v>10228.843999999999</v>
+      </c>
+      <c r="G44" s="136">
         <f t="shared" si="7"/>
-        <v>10,229€</v>
-      </c>
-      <c r="G44" s="68" t="str">
-        <f t="shared" si="8"/>
-        <v>14,320€</v>
+        <v>14320.381599999999</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" ht="15">
       <c r="A45" s="1"/>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="65">
-        <v>12.0</v>
-      </c>
-      <c r="D45" s="66" t="str">
+      <c r="C45" s="149">
+        <v>12</v>
+      </c>
+      <c r="D45" s="134">
         <f>(C7*(C18)+D7*D18+E7*E18+F7*F18)</f>
-        <v>19%</v>
-      </c>
-      <c r="E45" s="67" t="str">
+        <v>0.1915</v>
+      </c>
+      <c r="E45" s="135">
         <f>$C2*D45</f>
-        <v>504.85145</v>
-      </c>
-      <c r="F45" s="68" t="str">
+        <v>504.85145000000006</v>
+      </c>
+      <c r="F45" s="136">
+        <f t="shared" si="6"/>
+        <v>24232.869600000002</v>
+      </c>
+      <c r="G45" s="136">
         <f t="shared" si="7"/>
-        <v>24,233€</v>
-      </c>
-      <c r="G45" s="68" t="str">
-        <f t="shared" si="8"/>
-        <v>33,926€</v>
+        <v>33926.017440000003</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10" ht="15">
       <c r="A46" s="1"/>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="65">
-        <v>6.0</v>
-      </c>
-      <c r="D46" s="66" t="str">
+      <c r="C46" s="149">
+        <v>6</v>
+      </c>
+      <c r="D46" s="134">
         <f>(C7*(C19)+D7*D19+E7*E19+F7*F19)</f>
-        <v>6%</v>
-      </c>
-      <c r="E46" s="67" t="str">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E46" s="135">
         <f>$C2*D46</f>
-        <v>166.0869</v>
-      </c>
-      <c r="F46" s="68" t="str">
+        <v>166.08690000000001</v>
+      </c>
+      <c r="F46" s="136">
+        <f t="shared" si="6"/>
+        <v>3986.0856000000003</v>
+      </c>
+      <c r="G46" s="136">
         <f t="shared" si="7"/>
-        <v>3,986€</v>
-      </c>
-      <c r="G46" s="68" t="str">
-        <f t="shared" si="8"/>
-        <v>5,581€</v>
+        <v>5580.5198400000008</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" ht="12.75">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="71" t="str">
-        <f>SUM(D39:D46)</f>
-        <v>100%</v>
-      </c>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10">
       <c r="A48" s="1"/>
-      <c r="B48" s="73" t="s">
+      <c r="B48" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="74" t="s">
+      <c r="C48" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="75"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="72"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="31"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10">
       <c r="A49" s="1"/>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="68" t="str">
-        <f>sum(G39:G44)+G45*2+G46*6</f>
-        <v>233,068€</v>
-      </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="72"/>
+      <c r="C49" s="136">
+        <f>SUM(G39:G44)+G45*2+G46*6</f>
+        <v>233067.90136000002</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="31"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:10">
       <c r="A50" s="1"/>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="78" t="str">
+      <c r="C50" s="139">
         <f>200*14</f>
-        <v>2,800€</v>
-      </c>
-      <c r="D50" s="75"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="72"/>
+        <v>2800</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="31"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="72"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="31"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:10" ht="15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="72"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="31"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:10">
       <c r="A53" s="1"/>
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="75"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="72"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="31"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:10" ht="15">
       <c r="A54" s="1"/>
-      <c r="B54" s="79" t="s">
+      <c r="B54" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="80" t="str">
+      <c r="C54" s="136">
         <f>SUM(C49:C50)</f>
-        <v>235,868€</v>
-      </c>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="72"/>
+        <v>235867.90136000002</v>
+      </c>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="31"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:10" ht="15">
       <c r="A55" s="1"/>
-      <c r="B55" s="81" t="s">
+      <c r="B55" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="80" t="str">
+      <c r="C55" s="136">
         <f>(C54*0.15)</f>
-        <v>35,380€</v>
-      </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
+        <v>35380.185204000001</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:10" ht="15">
       <c r="A56" s="1"/>
-      <c r="B56" s="81" t="s">
+      <c r="B56" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="80" t="str">
+      <c r="C56" s="136">
         <f>((C54+C55)*0.4)</f>
-        <v>108,499€</v>
-      </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
+        <v>108499.2346256</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:10" ht="15">
       <c r="A57" s="1"/>
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="80" t="str">
+      <c r="C57" s="136">
         <f>(C56+C54+C55)*0.1</f>
-        <v>37,975€</v>
-      </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
+        <v>37974.732118959997</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:10">
       <c r="A58" s="1"/>
-      <c r="B58" s="82" t="s">
+      <c r="B58" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="83" t="str">
-        <f>sum(C54:C57)</f>
-        <v>417,722€</v>
-      </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
+      <c r="C58" s="36">
+        <f>SUM(C54:C57)</f>
+        <v>417722.05330855999</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:10" ht="15">
       <c r="A59" s="1"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:10" ht="15">
       <c r="A60" s="1"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3717,24 +5830,39 @@
       <c r="J60" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="7">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="30.43"/>
-    <col customWidth="1" min="7" max="8" width="15.29"/>
-    <col customWidth="1" min="9" max="9" width="20.86"/>
-    <col customWidth="1" min="10" max="10" width="21.29"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="7" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="12.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3748,26 +5876,26 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85" t="s">
+    <row r="2" spans="1:13" ht="23.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="23.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="39" t="s">
         <v>103</v>
       </c>
       <c r="C3" s="3">
@@ -3784,7 +5912,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" ht="12.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3799,22 +5927,24 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13">
       <c r="A5" s="1"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="87"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -3822,24 +5952,24 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="148">
         <v>0.2</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="148">
         <v>0.2</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="148">
         <v>0.35</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="148">
         <v>0.25</v>
       </c>
-      <c r="G6" s="87"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3847,24 +5977,24 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="148">
         <v>0.1</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="148">
         <v>0.25</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="148">
         <v>0.45</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="148">
         <v>0.2</v>
       </c>
-      <c r="G7" s="87"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3872,14 +6002,14 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" ht="12.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3887,7 +6017,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" ht="12.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3902,19 +6032,21 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="141" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="131" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="1"/>
@@ -3925,26 +6057,26 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="89" t="str">
-        <f t="shared" ref="C11:F11" si="1">(C13/5)/8</f>
-        <v>7</v>
-      </c>
-      <c r="D11" s="89" t="str">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="E11" s="89" t="str">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F11" s="89" t="str">
-        <f t="shared" si="1"/>
-        <v>13</v>
+      <c r="C11" s="150">
+        <f t="shared" ref="C11:F11" si="0">(C13/5)/8</f>
+        <v>6.5907500000000017</v>
+      </c>
+      <c r="D11" s="150">
+        <f t="shared" si="0"/>
+        <v>16.476875</v>
+      </c>
+      <c r="E11" s="150">
+        <f t="shared" si="0"/>
+        <v>29.658374999999999</v>
+      </c>
+      <c r="F11" s="150">
+        <f t="shared" si="0"/>
+        <v>13.181500000000003</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3954,21 +6086,21 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="151" t="s">
         <v>109</v>
       </c>
       <c r="G12" s="1"/>
@@ -3979,26 +6111,26 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="91" t="str">
+      <c r="C13" s="135">
         <f>(C3*C7)</f>
-        <v>263.63</v>
-      </c>
-      <c r="D13" s="91" t="str">
+        <v>263.63000000000005</v>
+      </c>
+      <c r="D13" s="135">
         <f>(D7*C3)</f>
-        <v>659.075</v>
-      </c>
-      <c r="E13" s="91" t="str">
+        <v>659.07500000000005</v>
+      </c>
+      <c r="E13" s="135">
         <f>(E7*C3)</f>
         <v>1186.335</v>
       </c>
-      <c r="F13" s="91" t="str">
+      <c r="F13" s="135">
         <f>(F7*C3)</f>
-        <v>527.26</v>
+        <v>527.2600000000001</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4008,7 +6140,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" ht="12.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4023,7 +6155,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" ht="12.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4038,7 +6170,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" ht="12.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4053,622 +6185,622 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="69"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="29"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" ht="15">
       <c r="A18" s="1"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="95" t="s">
+      <c r="H18" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="96" t="s">
+      <c r="I18" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="95" t="s">
+      <c r="J18" s="44" t="s">
         <v>103</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" ht="18.0" customHeight="1">
+    <row r="19" spans="1:13" ht="18" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="99" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="105"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="99" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="100"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="105"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" ht="17.25" customHeight="1">
+    <row r="21" spans="1:13" ht="17.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="100"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102" t="s">
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="103" t="s">
+      <c r="H21" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="102"/>
-      <c r="J21" s="106"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="55"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" ht="9.0" customHeight="1">
+    <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="99" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="105"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" ht="5.25" customHeight="1">
+    <row r="23" spans="1:13" ht="12" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="111" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="100"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:13" ht="14.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="111" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="100"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="105"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" ht="15.0" customHeight="1">
+    <row r="25" spans="1:13" ht="15" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="114" t="s">
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="120"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="69"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" ht="17.25" customHeight="1">
+    <row r="26" spans="1:13" ht="17.25" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="123" t="s">
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="124"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="78"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13" ht="12.75">
       <c r="A27" s="1"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="122" t="s">
+      <c r="B27" s="79"/>
+      <c r="C27" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="124"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="131" t="s">
+      <c r="E27" s="73"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="132" t="s">
+      <c r="H27" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="I27" s="128"/>
-      <c r="J27" s="129"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="78"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13" ht="12.75">
       <c r="A28" s="1"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="123" t="s">
+      <c r="B28" s="79"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="124"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="129"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="78"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13" ht="12.75">
       <c r="A29" s="1"/>
-      <c r="B29" s="130" t="s">
+      <c r="B29" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="134"/>
-      <c r="D29" s="135" t="s">
+      <c r="C29" s="83"/>
+      <c r="D29" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="136"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="141"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="90"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13" ht="18">
       <c r="A30" s="1"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="143" t="s">
+      <c r="B30" s="70"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="124"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13" ht="18">
       <c r="A31" s="1"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="122" t="s">
+      <c r="B31" s="61"/>
+      <c r="C31" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="143" t="s">
+      <c r="D31" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="124"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="131" t="s">
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="H31" s="132" t="s">
+      <c r="H31" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="129"/>
-      <c r="J31" s="129"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13" ht="18">
       <c r="A32" s="1"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="143" t="s">
+      <c r="B32" s="61"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="124"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="129"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:13" ht="18">
       <c r="A33" s="1"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:13" ht="18">
       <c r="A34" s="1"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:13" ht="18">
       <c r="A35" s="1"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="148" t="s">
+      <c r="B35" s="95"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="149"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:13" ht="18">
       <c r="A36" s="1"/>
-      <c r="B36" s="146"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="148" t="s">
+      <c r="B36" s="95"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="149"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:13" ht="18">
       <c r="A37" s="1"/>
-      <c r="B37" s="146"/>
-      <c r="C37" s="154" t="s">
+      <c r="B37" s="95"/>
+      <c r="C37" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="148" t="s">
+      <c r="D37" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="149"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="155" t="s">
+      <c r="E37" s="98"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="H37" s="156" t="s">
+      <c r="H37" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:13" ht="18">
       <c r="A38" s="1"/>
-      <c r="B38" s="146"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:13" ht="18">
       <c r="A39" s="1"/>
-      <c r="B39" s="146"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="161"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:13" ht="18">
       <c r="A40" s="1"/>
-      <c r="B40" s="146"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="148" t="s">
+      <c r="B40" s="95"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="149"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:13" ht="18">
       <c r="A41" s="1"/>
-      <c r="B41" s="146" t="s">
+      <c r="B41" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="154" t="s">
+      <c r="C41" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="148" t="s">
+      <c r="D41" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="149"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="155" t="s">
+      <c r="E41" s="98"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="H41" s="156" t="s">
+      <c r="H41" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:13" ht="18">
       <c r="A42" s="1"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="159"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:13" ht="18">
       <c r="A43" s="1"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="148" t="s">
+      <c r="B43" s="95"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="149"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="162"/>
-      <c r="J43" s="153"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="102"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:13" ht="18">
       <c r="A44" s="1"/>
-      <c r="B44" s="146"/>
-      <c r="C44" s="154" t="s">
+      <c r="B44" s="95"/>
+      <c r="C44" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="148" t="s">
+      <c r="D44" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="149"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="155" t="s">
+      <c r="E44" s="98"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="H44" s="156" t="s">
+      <c r="H44" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="I44" s="153"/>
-      <c r="J44" s="153"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:13" ht="18">
       <c r="A45" s="1"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="157"/>
-      <c r="D45" s="163" t="s">
+      <c r="B45" s="95"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="159"/>
-      <c r="F45" s="160"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="160"/>
-      <c r="I45" s="161"/>
-      <c r="J45" s="161"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:13" ht="12.75">
       <c r="A46" s="1"/>
-      <c r="B46" s="164"/>
-      <c r="C46" s="165"/>
-      <c r="D46" s="166" t="s">
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="E46" s="167"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="169"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="170"/>
-      <c r="J46" s="169"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="119"/>
+      <c r="J46" s="118"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:13" ht="12.75">
       <c r="A47" s="1"/>
-      <c r="B47" s="171" t="s">
+      <c r="B47" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="172" t="s">
+      <c r="C47" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="166" t="s">
+      <c r="D47" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="E47" s="167"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="173" t="s">
+      <c r="E47" s="116"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="H47" s="174" t="s">
+      <c r="H47" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="I47" s="170"/>
-      <c r="J47" s="169"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="118"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:13" ht="12.75">
       <c r="A48" s="1"/>
-      <c r="B48" s="171"/>
-      <c r="C48" s="172"/>
-      <c r="D48" s="166" t="s">
+      <c r="B48" s="120"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="E48" s="167"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="173"/>
-      <c r="H48" s="174"/>
-      <c r="I48" s="170"/>
-      <c r="J48" s="169"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="119"/>
+      <c r="J48" s="118"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:13" ht="12.75">
       <c r="A49" s="1"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="176" t="s">
+      <c r="B49" s="113"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="E49" s="177"/>
-      <c r="F49" s="178"/>
-      <c r="G49" s="179"/>
-      <c r="H49" s="178"/>
-      <c r="I49" s="180"/>
-      <c r="J49" s="179"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="127"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="128"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:13" ht="12.75">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4683,7 +6815,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:13" ht="12.75">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4698,7 +6830,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:13" ht="12.75">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4713,7 +6845,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:13" ht="12.75">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4728,7 +6860,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:13" ht="12.75">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4743,7 +6875,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:13" ht="12.75">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4759,6 +6891,10 @@
       <c r="M55" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Fullsdecalculs.xlsx
+++ b/Fullsdecalculs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="7380" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Temps" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="164">
   <si>
     <t>ESTIMACIÓ DEL TEMPS</t>
   </si>
@@ -368,9 +368,6 @@
     <t xml:space="preserve">Dates                           </t>
   </si>
   <si>
-    <t xml:space="preserve">                             Staff</t>
-  </si>
-  <si>
     <t>Inici</t>
   </si>
   <si>
@@ -513,6 +510,9 @@
   </si>
   <si>
     <t>Columna1</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
     <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0[$€]"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -532,6 +532,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -546,11 +547,13 @@
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -560,6 +563,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -578,11 +582,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -599,6 +605,7 @@
       <sz val="10"/>
       <color rgb="FFFF9900"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -657,6 +664,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -836,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -945,12 +958,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,9 +993,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1206,6 +1210,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1219,18 +1224,20 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="0"/>
+        <color auto="1"/>
         <name val="Roboto Condensed"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1243,18 +1250,13 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1267,18 +1269,13 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1291,10 +1288,983 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1308,6 +2278,20 @@
         <name val="Roboto Condensed"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1328,10 +2312,37 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1349,13 +2360,13 @@
         <name val="Roboto Condensed"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1373,13 +2384,13 @@
         <name val="Roboto Condensed"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1403,7 +2414,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1421,13 +2432,14 @@
         <name val="Roboto Condensed"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1445,6 +2457,7 @@
         <name val="Roboto Condensed"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1478,6 +2491,38 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1496,18 +2541,62 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1517,13 +2606,6 @@
         <name val="Roboto Condensed"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1599,6 +2681,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1616,7 +2711,103 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Roboto Condensed"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1640,14 +2831,18 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1660,13 +2855,18 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1679,13 +2879,18 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1698,13 +2903,18 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1717,28 +2927,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1747,617 +2939,6 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2370,586 +2951,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0&quot;€&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Roboto Condensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2965,13 +2970,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="B13:E25" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="B13:E25" totalsRowShown="0" headerRowDxfId="76">
   <autoFilter ref="B13:E25"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Descripció" dataDxfId="17"/>
-    <tableColumn id="2" name="Pes" dataDxfId="16"/>
-    <tableColumn id="3" name="Prioritat" dataDxfId="15"/>
-    <tableColumn id="4" name="Pes Ponderat" dataDxfId="14">
+    <tableColumn id="1" name="Descripció" dataDxfId="75"/>
+    <tableColumn id="2" name="Pes" dataDxfId="74"/>
+    <tableColumn id="3" name="Prioritat" dataDxfId="73"/>
+    <tableColumn id="4" name="Pes Ponderat" dataDxfId="72">
       <calculatedColumnFormula>C14*D14</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2980,69 +2985,69 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="B11:F19" totalsRowShown="0" headerRowDxfId="48" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="B11:F19" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="B11:F19"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Rol" dataDxfId="47"/>
-    <tableColumn id="2" name="Inception" dataDxfId="46"/>
-    <tableColumn id="3" name="Elaboration" dataDxfId="45"/>
-    <tableColumn id="4" name="Construction" dataDxfId="44"/>
-    <tableColumn id="5" name="Transition" dataDxfId="43"/>
+    <tableColumn id="1" name="Rol" dataDxfId="25"/>
+    <tableColumn id="2" name="Inception" dataDxfId="24"/>
+    <tableColumn id="3" name="Elaboration" dataDxfId="23"/>
+    <tableColumn id="4" name="Construction" dataDxfId="22"/>
+    <tableColumn id="5" name="Transition" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="B5:F7" totalsRowShown="0" headerRowDxfId="60" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="B5:F7" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="B5:F7"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Columna1" dataDxfId="41"/>
-    <tableColumn id="2" name="Inception" dataDxfId="40"/>
-    <tableColumn id="3" name="Elaboration" dataDxfId="39"/>
-    <tableColumn id="4" name="Construction" dataDxfId="38"/>
-    <tableColumn id="5" name="Transition" dataDxfId="37"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="18"/>
+    <tableColumn id="2" name="Inception" dataDxfId="17"/>
+    <tableColumn id="3" name="Elaboration" dataDxfId="16"/>
+    <tableColumn id="4" name="Construction" dataDxfId="15"/>
+    <tableColumn id="5" name="Transition" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B5:F7" totalsRowShown="0" headerRowDxfId="62" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B5:F7" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="B5:F7"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Columna1" dataDxfId="30"/>
-    <tableColumn id="2" name="Inception" dataDxfId="29"/>
-    <tableColumn id="3" name="Elaboration" dataDxfId="28"/>
-    <tableColumn id="4" name="Construction" dataDxfId="27"/>
-    <tableColumn id="5" name="Transition" dataDxfId="26"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="11"/>
+    <tableColumn id="2" name="Inception" dataDxfId="10"/>
+    <tableColumn id="3" name="Elaboration" dataDxfId="9"/>
+    <tableColumn id="4" name="Construction" dataDxfId="8"/>
+    <tableColumn id="5" name="Transition" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="B10:F13" totalsRowShown="0" headerRowDxfId="61" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="B10:F13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="B10:F13"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Columna1" dataDxfId="24"/>
-    <tableColumn id="2" name="Inception" dataDxfId="23"/>
-    <tableColumn id="3" name="Elaboration" dataDxfId="22"/>
-    <tableColumn id="4" name="Construction" dataDxfId="21"/>
-    <tableColumn id="5" name="Transition" dataDxfId="20"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="4"/>
+    <tableColumn id="2" name="Inception" dataDxfId="3"/>
+    <tableColumn id="3" name="Elaboration" dataDxfId="2"/>
+    <tableColumn id="4" name="Construction" dataDxfId="1"/>
+    <tableColumn id="5" name="Transition" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="B29:E37" totalsRowShown="0" headerRowDxfId="13" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="B29:E37" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="B29:E37"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Factor d'Entorn" dataDxfId="12"/>
-    <tableColumn id="2" name="Pes" dataDxfId="11"/>
-    <tableColumn id="3" name="Avaluació" dataDxfId="10"/>
-    <tableColumn id="4" name="Pes Final" dataDxfId="9">
+    <tableColumn id="1" name="Factor d'Entorn" dataDxfId="69"/>
+    <tableColumn id="2" name="Pes" dataDxfId="68"/>
+    <tableColumn id="3" name="Avaluació" dataDxfId="67"/>
+    <tableColumn id="4" name="Pes Final" dataDxfId="66">
       <calculatedColumnFormula>(C30*D30)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3051,23 +3056,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla12" displayName="Tabla12" ref="B41:C47" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla12" displayName="Tabla12" ref="B41:C47" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="B41:C47"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Actor" dataDxfId="7"/>
-    <tableColumn id="2" name="Pes UAW" dataDxfId="6"/>
+    <tableColumn id="1" name="Actor" dataDxfId="63"/>
+    <tableColumn id="2" name="Pes UAW" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="B51:D66" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="B51:D66" totalsRowShown="0" headerRowDxfId="61">
   <autoFilter ref="B51:D66"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Casos d'ús" dataDxfId="3"/>
-    <tableColumn id="2" name="Complexitat" dataDxfId="2"/>
-    <tableColumn id="3" name="Pes" dataDxfId="1">
+    <tableColumn id="1" name="Casos d'ús" dataDxfId="60"/>
+    <tableColumn id="2" name="Complexitat" dataDxfId="59"/>
+    <tableColumn id="3" name="Pes" dataDxfId="58">
       <calculatedColumnFormula>IF(C52 = "Simple", 5, IF(C52 = "Mig", 10, 15))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3076,17 +3081,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B38:G46" totalsRowShown="0" headerRowDxfId="51" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B38:G46" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="B38:G46"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Rol" dataDxfId="33"/>
-    <tableColumn id="2" name="Salari/hora" dataDxfId="31"/>
-    <tableColumn id="3" name="Factor de treball" dataDxfId="32"/>
-    <tableColumn id="4" name="Hores de treball" dataDxfId="71"/>
-    <tableColumn id="5" name="Preu en net" dataDxfId="70">
+    <tableColumn id="1" name="Rol" dataDxfId="55"/>
+    <tableColumn id="2" name="Salari/hora" dataDxfId="54"/>
+    <tableColumn id="3" name="Factor de treball" dataDxfId="53"/>
+    <tableColumn id="4" name="Hores de treball" dataDxfId="52"/>
+    <tableColumn id="5" name="Preu en net" dataDxfId="51">
       <calculatedColumnFormula>4*E39*C39</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Preu en brut" dataDxfId="69">
+    <tableColumn id="6" name="Preu en brut" dataDxfId="50">
       <calculatedColumnFormula>F39+F39*0.4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3095,11 +3100,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B48:C50" totalsRowShown="0" headerRowDxfId="49" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B48:C50" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="B48:C50"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Llista de costos del personal" dataDxfId="68"/>
-    <tableColumn id="2" name="Preu" dataDxfId="67">
+    <tableColumn id="1" name="Llista de costos del personal" dataDxfId="47"/>
+    <tableColumn id="2" name="Preu" dataDxfId="46">
       <calculatedColumnFormula>200*14</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3108,31 +3113,31 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B53:C57" totalsRowShown="0" headerRowDxfId="50" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B53:C57" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="B53:C57"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Llista de costos" dataDxfId="65"/>
-    <tableColumn id="2" name="Preu" dataDxfId="64"/>
+    <tableColumn id="1" name="Llista de costos" dataDxfId="43"/>
+    <tableColumn id="2" name="Preu" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B23:F31" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B23:F31" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="B23:F31"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Rol" dataDxfId="34"/>
-    <tableColumn id="2" name="Inception" dataDxfId="35">
+    <tableColumn id="1" name="Rol" dataDxfId="39"/>
+    <tableColumn id="2" name="Inception" dataDxfId="38">
       <calculatedColumnFormula>C12*($C$2)*($C$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Elaboration" dataDxfId="76">
+    <tableColumn id="3" name="Elaboration" dataDxfId="37">
       <calculatedColumnFormula>D12*($C$2)*($D$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Construction" dataDxfId="75">
+    <tableColumn id="4" name="Construction" dataDxfId="36">
       <calculatedColumnFormula>E12*($C$2)*($E$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Transition" dataDxfId="74">
+    <tableColumn id="5" name="Transition" dataDxfId="35">
       <calculatedColumnFormula>F12*($C$2)*($F$7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3141,20 +3146,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B33:F34" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B33:F34" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="B33:F34"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Columna1" dataDxfId="59"/>
-    <tableColumn id="2" name="Inception" dataDxfId="58">
+    <tableColumn id="1" name="Columna1" dataDxfId="32"/>
+    <tableColumn id="2" name="Inception" dataDxfId="31">
       <calculatedColumnFormula>SUM(C24:C31)/($C$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Elaboration" dataDxfId="57">
+    <tableColumn id="3" name="Elaboration" dataDxfId="30">
       <calculatedColumnFormula>SUM(D24:D31)/($C$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Construction" dataDxfId="56">
+    <tableColumn id="4" name="Construction" dataDxfId="29">
       <calculatedColumnFormula>SUM(E24:E31)/($C$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Transition" dataDxfId="55">
+    <tableColumn id="5" name="Transition" dataDxfId="28">
       <calculatedColumnFormula>SUM(F24:F31)/($C$2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3427,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3488,7 +3493,7 @@
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="157">
+      <c r="E4" s="154">
         <f>(E6+E7)*E8*E9</f>
         <v>117.1688</v>
       </c>
@@ -3532,7 +3537,7 @@
     <row r="7" spans="1:9" ht="12.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="158"/>
+      <c r="C7" s="155"/>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
@@ -3614,16 +3619,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="146" t="s">
+      <c r="D13" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="146" t="s">
+      <c r="E13" s="143" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="1"/>
@@ -3633,16 +3638,16 @@
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="1"/>
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="133">
+      <c r="C14" s="130">
         <v>1</v>
       </c>
-      <c r="D14" s="133">
+      <c r="D14" s="130">
         <v>5</v>
       </c>
-      <c r="E14" s="133">
+      <c r="E14" s="130">
         <f t="shared" ref="E14:E25" si="0">C14*D14</f>
         <v>5</v>
       </c>
@@ -3653,16 +3658,16 @@
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="133">
+      <c r="C15" s="130">
         <v>2</v>
       </c>
-      <c r="D15" s="133">
+      <c r="D15" s="130">
         <v>3</v>
       </c>
-      <c r="E15" s="133">
+      <c r="E15" s="130">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -3673,16 +3678,16 @@
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="1"/>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="133">
+      <c r="C16" s="130">
         <v>2</v>
       </c>
-      <c r="D16" s="133">
+      <c r="D16" s="130">
         <v>5</v>
       </c>
-      <c r="E16" s="133">
+      <c r="E16" s="130">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3693,16 +3698,16 @@
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="1"/>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="133">
+      <c r="C17" s="130">
         <v>0.5</v>
       </c>
-      <c r="D17" s="133">
+      <c r="D17" s="130">
         <v>1</v>
       </c>
-      <c r="E17" s="133">
+      <c r="E17" s="130">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -3713,16 +3718,16 @@
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="1"/>
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="133">
+      <c r="C18" s="130">
         <v>1</v>
       </c>
-      <c r="D18" s="133">
+      <c r="D18" s="130">
         <v>4</v>
       </c>
-      <c r="E18" s="133">
+      <c r="E18" s="130">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3733,16 +3738,16 @@
     </row>
     <row r="19" spans="1:9" ht="15">
       <c r="A19" s="1"/>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="133">
+      <c r="C19" s="130">
         <v>-1</v>
       </c>
-      <c r="D19" s="133">
+      <c r="D19" s="130">
         <v>5</v>
       </c>
-      <c r="E19" s="133">
+      <c r="E19" s="130">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
@@ -3753,16 +3758,16 @@
     </row>
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="1"/>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="133">
+      <c r="C20" s="130">
         <v>0.5</v>
       </c>
-      <c r="D20" s="133">
+      <c r="D20" s="130">
         <v>5</v>
       </c>
-      <c r="E20" s="133">
+      <c r="E20" s="130">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -3773,16 +3778,16 @@
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="A21" s="1"/>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="133">
+      <c r="C21" s="130">
         <v>0.5</v>
       </c>
-      <c r="D21" s="133">
+      <c r="D21" s="130">
         <v>4</v>
       </c>
-      <c r="E21" s="133">
+      <c r="E21" s="130">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3793,16 +3798,16 @@
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="1"/>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="133">
+      <c r="C22" s="130">
         <v>2</v>
       </c>
-      <c r="D22" s="133">
+      <c r="D22" s="130">
         <v>3</v>
       </c>
-      <c r="E22" s="133">
+      <c r="E22" s="130">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -3813,16 +3818,16 @@
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="1"/>
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="133">
+      <c r="C23" s="130">
         <v>1</v>
       </c>
-      <c r="D23" s="133">
+      <c r="D23" s="130">
         <v>5</v>
       </c>
-      <c r="E23" s="133">
+      <c r="E23" s="130">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3833,16 +3838,16 @@
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="1"/>
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="133">
+      <c r="C24" s="130">
         <v>1</v>
       </c>
-      <c r="D24" s="133">
+      <c r="D24" s="130">
         <v>5</v>
       </c>
-      <c r="E24" s="133">
+      <c r="E24" s="130">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3853,16 +3858,16 @@
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="1"/>
-      <c r="B25" s="133" t="s">
+      <c r="B25" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="133">
+      <c r="C25" s="130">
         <v>-1</v>
       </c>
-      <c r="D25" s="133">
+      <c r="D25" s="130">
         <v>3</v>
       </c>
-      <c r="E25" s="133">
+      <c r="E25" s="130">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
@@ -3875,10 +3880,10 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="153" t="s">
+      <c r="D26" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="153">
+      <c r="E26" s="150">
         <f>0.6+SUM(E13:E25)/100</f>
         <v>0.98</v>
       </c>
@@ -3913,16 +3918,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1"/>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="146" t="s">
+      <c r="D29" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="146" t="s">
+      <c r="E29" s="143" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="1"/>
@@ -3932,16 +3937,16 @@
     </row>
     <row r="30" spans="1:9" ht="15">
       <c r="A30" s="1"/>
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="133">
+      <c r="C30" s="130">
         <v>0.5</v>
       </c>
-      <c r="D30" s="133">
+      <c r="D30" s="130">
         <v>3</v>
       </c>
-      <c r="E30" s="133">
+      <c r="E30" s="130">
         <f t="shared" ref="E30:E37" si="1">(C30*D30)</f>
         <v>1.5</v>
       </c>
@@ -3952,16 +3957,16 @@
     </row>
     <row r="31" spans="1:9" ht="15">
       <c r="A31" s="1"/>
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="133">
+      <c r="C31" s="130">
         <v>-1</v>
       </c>
-      <c r="D31" s="133">
+      <c r="D31" s="130">
         <v>2</v>
       </c>
-      <c r="E31" s="133">
+      <c r="E31" s="130">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
@@ -3972,16 +3977,16 @@
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="1"/>
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="133">
+      <c r="C32" s="130">
         <v>2</v>
       </c>
-      <c r="D32" s="133">
+      <c r="D32" s="130">
         <v>3</v>
       </c>
-      <c r="E32" s="133">
+      <c r="E32" s="130">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3992,16 +3997,16 @@
     </row>
     <row r="33" spans="1:9" ht="15">
       <c r="A33" s="1"/>
-      <c r="B33" s="133" t="s">
+      <c r="B33" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="133">
+      <c r="C33" s="130">
         <v>0.5</v>
       </c>
-      <c r="D33" s="133">
+      <c r="D33" s="130">
         <v>3</v>
       </c>
-      <c r="E33" s="133">
+      <c r="E33" s="130">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
@@ -4012,16 +4017,16 @@
     </row>
     <row r="34" spans="1:9" ht="15">
       <c r="A34" s="1"/>
-      <c r="B34" s="133" t="s">
+      <c r="B34" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="133">
+      <c r="C34" s="130">
         <v>1</v>
       </c>
-      <c r="D34" s="133">
+      <c r="D34" s="130">
         <v>3</v>
       </c>
-      <c r="E34" s="133">
+      <c r="E34" s="130">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -4032,16 +4037,16 @@
     </row>
     <row r="35" spans="1:9" ht="15">
       <c r="A35" s="1"/>
-      <c r="B35" s="133" t="s">
+      <c r="B35" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="133">
+      <c r="C35" s="130">
         <v>1.5</v>
       </c>
-      <c r="D35" s="133">
+      <c r="D35" s="130">
         <v>2</v>
       </c>
-      <c r="E35" s="133">
+      <c r="E35" s="130">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -4052,16 +4057,16 @@
     </row>
     <row r="36" spans="1:9" ht="15">
       <c r="A36" s="1"/>
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="133">
+      <c r="C36" s="130">
         <v>1</v>
       </c>
-      <c r="D36" s="133">
+      <c r="D36" s="130">
         <v>2</v>
       </c>
-      <c r="E36" s="133">
+      <c r="E36" s="130">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4072,16 +4077,16 @@
     </row>
     <row r="37" spans="1:9" ht="15">
       <c r="A37" s="1"/>
-      <c r="B37" s="133" t="s">
+      <c r="B37" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="133">
+      <c r="C37" s="130">
         <v>-1</v>
       </c>
-      <c r="D37" s="133">
+      <c r="D37" s="130">
         <v>1</v>
       </c>
-      <c r="E37" s="133">
+      <c r="E37" s="130">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -4094,10 +4099,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="156" t="s">
+      <c r="D38" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="156">
+      <c r="E38" s="153">
         <f>1.4+(-0.03*SUM(E30:E37))</f>
         <v>0.98</v>
       </c>
@@ -4132,10 +4137,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
-      <c r="B41" s="145" t="s">
+      <c r="B41" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="146" t="s">
+      <c r="C41" s="143" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="1"/>
@@ -4147,10 +4152,10 @@
     </row>
     <row r="42" spans="1:9" ht="15">
       <c r="A42" s="1"/>
-      <c r="B42" s="133" t="s">
+      <c r="B42" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="133">
+      <c r="C42" s="130">
         <v>1</v>
       </c>
       <c r="D42" s="1"/>
@@ -4162,10 +4167,10 @@
     </row>
     <row r="43" spans="1:9" ht="15">
       <c r="A43" s="1"/>
-      <c r="B43" s="133" t="s">
+      <c r="B43" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="133">
+      <c r="C43" s="130">
         <v>1</v>
       </c>
       <c r="D43" s="1"/>
@@ -4177,10 +4182,10 @@
     </row>
     <row r="44" spans="1:9" ht="15">
       <c r="A44" s="1"/>
-      <c r="B44" s="133" t="s">
+      <c r="B44" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="133">
+      <c r="C44" s="130">
         <v>3</v>
       </c>
       <c r="D44" s="1"/>
@@ -4192,10 +4197,10 @@
     </row>
     <row r="45" spans="1:9" ht="15">
       <c r="A45" s="1"/>
-      <c r="B45" s="133" t="s">
+      <c r="B45" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="133">
+      <c r="C45" s="130">
         <v>3</v>
       </c>
       <c r="D45" s="1"/>
@@ -4207,10 +4212,10 @@
     </row>
     <row r="46" spans="1:9" ht="15">
       <c r="A46" s="1"/>
-      <c r="B46" s="133" t="s">
+      <c r="B46" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="133">
+      <c r="C46" s="130">
         <v>3</v>
       </c>
       <c r="D46" s="1"/>
@@ -4222,10 +4227,10 @@
     </row>
     <row r="47" spans="1:9" ht="15">
       <c r="A47" s="1"/>
-      <c r="B47" s="133" t="s">
+      <c r="B47" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="133">
+      <c r="C47" s="130">
         <v>1</v>
       </c>
       <c r="D47" s="1"/>
@@ -4237,10 +4242,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
-      <c r="B48" s="154" t="s">
+      <c r="B48" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="155">
+      <c r="C48" s="152">
         <f>SUM(C42:C47)</f>
         <v>12</v>
       </c>
@@ -4277,13 +4282,13 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
-      <c r="B51" s="145" t="s">
+      <c r="B51" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="146" t="s">
+      <c r="C51" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="146" t="s">
+      <c r="D51" s="143" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="1"/>
@@ -4294,13 +4299,13 @@
     </row>
     <row r="52" spans="1:9" ht="15">
       <c r="A52" s="1"/>
-      <c r="B52" s="133" t="s">
+      <c r="B52" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="151" t="s">
+      <c r="C52" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="133">
+      <c r="D52" s="130">
         <f t="shared" ref="D52:D66" si="2">IF(C52 = "Simple", 5, IF(C52 = "Mig", 10, 15))</f>
         <v>5</v>
       </c>
@@ -4312,13 +4317,13 @@
     </row>
     <row r="53" spans="1:9" ht="15">
       <c r="A53" s="1"/>
-      <c r="B53" s="133" t="s">
+      <c r="B53" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="151" t="s">
+      <c r="C53" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="133">
+      <c r="D53" s="130">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -4330,13 +4335,13 @@
     </row>
     <row r="54" spans="1:9" ht="15">
       <c r="A54" s="1"/>
-      <c r="B54" s="133" t="s">
+      <c r="B54" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="151" t="s">
+      <c r="C54" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="133">
+      <c r="D54" s="130">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -4348,13 +4353,13 @@
     </row>
     <row r="55" spans="1:9" ht="15">
       <c r="A55" s="1"/>
-      <c r="B55" s="133" t="s">
+      <c r="B55" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="151" t="s">
+      <c r="C55" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="133">
+      <c r="D55" s="130">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -4366,13 +4371,13 @@
     </row>
     <row r="56" spans="1:9" ht="15">
       <c r="A56" s="1"/>
-      <c r="B56" s="133" t="s">
+      <c r="B56" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="151" t="s">
+      <c r="C56" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="133">
+      <c r="D56" s="130">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -4384,13 +4389,13 @@
     </row>
     <row r="57" spans="1:9" ht="15">
       <c r="A57" s="1"/>
-      <c r="B57" s="133" t="s">
+      <c r="B57" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="151" t="s">
+      <c r="C57" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="133">
+      <c r="D57" s="130">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -4402,13 +4407,13 @@
     </row>
     <row r="58" spans="1:9" ht="15">
       <c r="A58" s="1"/>
-      <c r="B58" s="133" t="s">
+      <c r="B58" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="151" t="s">
+      <c r="C58" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="133">
+      <c r="D58" s="130">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -4420,13 +4425,13 @@
     </row>
     <row r="59" spans="1:9" ht="15">
       <c r="A59" s="1"/>
-      <c r="B59" s="133" t="s">
+      <c r="B59" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="151" t="s">
+      <c r="C59" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="133">
+      <c r="D59" s="130">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -4438,13 +4443,13 @@
     </row>
     <row r="60" spans="1:9" ht="15">
       <c r="A60" s="1"/>
-      <c r="B60" s="133" t="s">
+      <c r="B60" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="151" t="s">
+      <c r="C60" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="133">
+      <c r="D60" s="130">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -4456,13 +4461,13 @@
     </row>
     <row r="61" spans="1:9" ht="15">
       <c r="A61" s="1"/>
-      <c r="B61" s="133" t="s">
+      <c r="B61" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="151" t="s">
+      <c r="C61" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="133">
+      <c r="D61" s="130">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -4474,13 +4479,13 @@
     </row>
     <row r="62" spans="1:9" ht="15">
       <c r="A62" s="1"/>
-      <c r="B62" s="133" t="s">
+      <c r="B62" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="151" t="s">
+      <c r="C62" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="133">
+      <c r="D62" s="130">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -4492,13 +4497,13 @@
     </row>
     <row r="63" spans="1:9" ht="15">
       <c r="A63" s="1"/>
-      <c r="B63" s="133" t="s">
+      <c r="B63" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="151" t="s">
+      <c r="C63" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="133">
+      <c r="D63" s="130">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -4510,13 +4515,13 @@
     </row>
     <row r="64" spans="1:9" ht="15">
       <c r="A64" s="1"/>
-      <c r="B64" s="133" t="s">
+      <c r="B64" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="151" t="s">
+      <c r="C64" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="133">
+      <c r="D64" s="130">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -4528,13 +4533,13 @@
     </row>
     <row r="65" spans="1:9" ht="15">
       <c r="A65" s="1"/>
-      <c r="B65" s="133" t="s">
+      <c r="B65" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="151" t="s">
+      <c r="C65" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="D65" s="133">
+      <c r="D65" s="130">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -4546,13 +4551,13 @@
     </row>
     <row r="66" spans="1:9" ht="15">
       <c r="A66" s="1"/>
-      <c r="B66" s="133" t="s">
+      <c r="B66" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="151" t="s">
+      <c r="C66" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="133">
+      <c r="D66" s="130">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -4565,10 +4570,10 @@
     <row r="67" spans="1:9">
       <c r="A67" s="1"/>
       <c r="B67" s="16"/>
-      <c r="C67" s="152" t="s">
+      <c r="C67" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="152">
+      <c r="D67" s="149">
         <f>SUM(D51:D66)</f>
         <v>110</v>
       </c>
@@ -4690,19 +4695,19 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1"/>
-      <c r="B5" s="130" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="131" t="s">
+      <c r="B5" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="128" t="s">
         <v>73</v>
       </c>
       <c r="G5" s="22"/>
@@ -4712,19 +4717,19 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1"/>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="148">
+      <c r="C6" s="145">
         <v>0.05</v>
       </c>
-      <c r="D6" s="148">
+      <c r="D6" s="145">
         <v>0.25</v>
       </c>
-      <c r="E6" s="148">
+      <c r="E6" s="145">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F6" s="148">
+      <c r="F6" s="145">
         <v>0.15</v>
       </c>
       <c r="G6" s="22"/>
@@ -4734,19 +4739,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1"/>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="135" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="148">
+      <c r="C7" s="145">
         <v>0.1</v>
       </c>
-      <c r="D7" s="148">
+      <c r="D7" s="145">
         <v>0.3</v>
       </c>
-      <c r="E7" s="148">
+      <c r="E7" s="145">
         <v>0.45</v>
       </c>
-      <c r="F7" s="148">
+      <c r="F7" s="145">
         <v>0.15</v>
       </c>
       <c r="G7" s="22"/>
@@ -4806,19 +4811,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1"/>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="131" t="s">
+      <c r="D11" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="131" t="s">
+      <c r="E11" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="131" t="s">
+      <c r="F11" s="128" t="s">
         <v>73</v>
       </c>
       <c r="G11" s="22"/>
@@ -4828,19 +4833,19 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="140">
+      <c r="C12" s="137">
         <v>0.19</v>
       </c>
-      <c r="D12" s="140">
+      <c r="D12" s="137">
         <v>0.12</v>
       </c>
-      <c r="E12" s="140">
+      <c r="E12" s="137">
         <v>0.12</v>
       </c>
-      <c r="F12" s="140">
+      <c r="F12" s="137">
         <v>0.6</v>
       </c>
       <c r="G12" s="22"/>
@@ -4850,19 +4855,19 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="140">
+      <c r="C13" s="137">
         <v>0.1</v>
       </c>
-      <c r="D13" s="140">
+      <c r="D13" s="137">
         <v>0.15</v>
       </c>
-      <c r="E13" s="140">
+      <c r="E13" s="137">
         <v>0.12</v>
       </c>
-      <c r="F13" s="140">
+      <c r="F13" s="137">
         <f t="shared" ref="F13:F18" si="0">0.4/6</f>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -4873,19 +4878,19 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="140">
+      <c r="C14" s="137">
         <v>0.35</v>
       </c>
-      <c r="D14" s="140">
+      <c r="D14" s="137">
         <v>0.25</v>
       </c>
-      <c r="E14" s="140">
+      <c r="E14" s="137">
         <v>0.05</v>
       </c>
-      <c r="F14" s="140">
+      <c r="F14" s="137">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -4896,19 +4901,19 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="140">
+      <c r="C15" s="137">
         <v>0.03</v>
       </c>
-      <c r="D15" s="140">
+      <c r="D15" s="137">
         <v>0.1</v>
       </c>
-      <c r="E15" s="140">
+      <c r="E15" s="137">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F15" s="140">
+      <c r="F15" s="137">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -4919,19 +4924,19 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="140">
+      <c r="C16" s="137">
         <v>0.3</v>
       </c>
-      <c r="D16" s="140">
+      <c r="D16" s="137">
         <v>0.17</v>
       </c>
-      <c r="E16" s="140">
+      <c r="E16" s="137">
         <v>0.05</v>
       </c>
-      <c r="F16" s="140">
+      <c r="F16" s="137">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -4942,19 +4947,19 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="140">
+      <c r="C17" s="137">
         <v>0.03</v>
       </c>
-      <c r="D17" s="140">
+      <c r="D17" s="137">
         <v>0.1</v>
       </c>
-      <c r="E17" s="140">
+      <c r="E17" s="137">
         <v>0.12</v>
       </c>
-      <c r="F17" s="140">
+      <c r="F17" s="137">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -4965,19 +4970,19 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="140">
+      <c r="C18" s="137">
         <v>0</v>
       </c>
-      <c r="D18" s="140">
+      <c r="D18" s="137">
         <v>0.08</v>
       </c>
-      <c r="E18" s="140">
+      <c r="E18" s="137">
         <v>0.35</v>
       </c>
-      <c r="F18" s="140">
+      <c r="F18" s="137">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -4988,19 +4993,19 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="140">
+      <c r="C19" s="137">
         <v>0</v>
       </c>
-      <c r="D19" s="140">
+      <c r="D19" s="137">
         <v>0.03</v>
       </c>
-      <c r="E19" s="140">
+      <c r="E19" s="137">
         <v>0.12</v>
       </c>
-      <c r="F19" s="140">
+      <c r="F19" s="137">
         <v>0</v>
       </c>
       <c r="G19" s="22"/>
@@ -5046,19 +5051,19 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1"/>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="131" t="s">
+      <c r="D23" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="131" t="s">
+      <c r="E23" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="131" t="s">
+      <c r="F23" s="128" t="s">
         <v>73</v>
       </c>
       <c r="G23" s="27"/>
@@ -5068,22 +5073,22 @@
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="1"/>
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="132">
+      <c r="C24" s="129">
         <f t="shared" ref="C24:C31" si="1">C12*($C$2)*($C$7)</f>
         <v>50.089700000000008</v>
       </c>
-      <c r="D24" s="132">
+      <c r="D24" s="129">
         <f t="shared" ref="D24:D31" si="2">D12*($C$2)*($D$7)</f>
         <v>94.90679999999999</v>
       </c>
-      <c r="E24" s="132">
+      <c r="E24" s="129">
         <f t="shared" ref="E24:E31" si="3">E12*($C$2)*($E$7)</f>
         <v>142.36019999999999</v>
       </c>
-      <c r="F24" s="132">
+      <c r="F24" s="129">
         <f t="shared" ref="F24:F31" si="4">F12*($C$2)*($F$7)</f>
         <v>237.267</v>
       </c>
@@ -5094,22 +5099,22 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="1"/>
-      <c r="B25" s="133" t="s">
+      <c r="B25" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="132">
+      <c r="C25" s="129">
         <f t="shared" si="1"/>
         <v>26.363000000000007</v>
       </c>
-      <c r="D25" s="132">
+      <c r="D25" s="129">
         <f t="shared" si="2"/>
         <v>118.6335</v>
       </c>
-      <c r="E25" s="132">
+      <c r="E25" s="129">
         <f t="shared" si="3"/>
         <v>142.36019999999999</v>
       </c>
-      <c r="F25" s="132">
+      <c r="F25" s="129">
         <f t="shared" si="4"/>
         <v>26.363</v>
       </c>
@@ -5120,22 +5125,22 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="1"/>
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="132">
+      <c r="C26" s="129">
         <f t="shared" si="1"/>
         <v>92.270500000000013</v>
       </c>
-      <c r="D26" s="132">
+      <c r="D26" s="129">
         <f t="shared" si="2"/>
         <v>197.7225</v>
       </c>
-      <c r="E26" s="132">
+      <c r="E26" s="129">
         <f t="shared" si="3"/>
         <v>59.316750000000013</v>
       </c>
-      <c r="F26" s="132">
+      <c r="F26" s="129">
         <f t="shared" si="4"/>
         <v>26.363</v>
       </c>
@@ -5146,22 +5151,22 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="1"/>
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="132">
+      <c r="C27" s="129">
         <f t="shared" si="1"/>
         <v>7.9089</v>
       </c>
-      <c r="D27" s="132">
+      <c r="D27" s="129">
         <f t="shared" si="2"/>
         <v>79.089000000000013</v>
       </c>
-      <c r="E27" s="132">
+      <c r="E27" s="129">
         <f t="shared" si="3"/>
         <v>83.043450000000007</v>
       </c>
-      <c r="F27" s="132">
+      <c r="F27" s="129">
         <f t="shared" si="4"/>
         <v>26.363</v>
       </c>
@@ -5172,22 +5177,22 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="1"/>
-      <c r="B28" s="133" t="s">
+      <c r="B28" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="132">
+      <c r="C28" s="129">
         <f t="shared" si="1"/>
         <v>79.088999999999999</v>
       </c>
-      <c r="D28" s="132">
+      <c r="D28" s="129">
         <f t="shared" si="2"/>
         <v>134.4513</v>
       </c>
-      <c r="E28" s="132">
+      <c r="E28" s="129">
         <f t="shared" si="3"/>
         <v>59.316750000000013</v>
       </c>
-      <c r="F28" s="132">
+      <c r="F28" s="129">
         <f t="shared" si="4"/>
         <v>26.363</v>
       </c>
@@ -5198,22 +5203,22 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="1"/>
-      <c r="B29" s="133" t="s">
+      <c r="B29" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="132">
+      <c r="C29" s="129">
         <f t="shared" si="1"/>
         <v>7.9089</v>
       </c>
-      <c r="D29" s="132">
+      <c r="D29" s="129">
         <f t="shared" si="2"/>
         <v>79.089000000000013</v>
       </c>
-      <c r="E29" s="132">
+      <c r="E29" s="129">
         <f t="shared" si="3"/>
         <v>142.36019999999999</v>
       </c>
-      <c r="F29" s="132">
+      <c r="F29" s="129">
         <f t="shared" si="4"/>
         <v>26.363</v>
       </c>
@@ -5224,22 +5229,22 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="1"/>
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="132">
+      <c r="C30" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="132">
+      <c r="D30" s="129">
         <f t="shared" si="2"/>
         <v>63.271200000000007</v>
       </c>
-      <c r="E30" s="132">
+      <c r="E30" s="129">
         <f t="shared" si="3"/>
         <v>415.21725000000004</v>
       </c>
-      <c r="F30" s="132">
+      <c r="F30" s="129">
         <f t="shared" si="4"/>
         <v>26.363</v>
       </c>
@@ -5250,22 +5255,22 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="1"/>
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="132">
+      <c r="C31" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="132">
+      <c r="D31" s="129">
         <f t="shared" si="2"/>
         <v>23.726699999999997</v>
       </c>
-      <c r="E31" s="132">
+      <c r="E31" s="129">
         <f t="shared" si="3"/>
         <v>142.36019999999999</v>
       </c>
-      <c r="F31" s="132">
+      <c r="F31" s="129">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5288,19 +5293,19 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1"/>
-      <c r="B33" s="144" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" s="131" t="s">
+      <c r="B33" s="141" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="131" t="s">
+      <c r="D33" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="131" t="s">
+      <c r="E33" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="131" t="s">
+      <c r="F33" s="128" t="s">
         <v>73</v>
       </c>
       <c r="G33" s="22"/>
@@ -5310,22 +5315,22 @@
     </row>
     <row r="34" spans="1:10" ht="15">
       <c r="A34" s="1"/>
-      <c r="B34" s="142" t="s">
+      <c r="B34" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="143">
+      <c r="C34" s="140">
         <f t="shared" ref="C34:F34" si="5">SUM(C24:C31)/($C$2)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="D34" s="143">
+      <c r="D34" s="140">
         <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="E34" s="143">
+      <c r="E34" s="140">
         <f t="shared" si="5"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="F34" s="143">
+      <c r="F34" s="140">
         <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
@@ -5372,22 +5377,22 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1"/>
-      <c r="B38" s="145" t="s">
+      <c r="B38" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="146" t="s">
+      <c r="C38" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="146" t="s">
+      <c r="D38" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="146" t="s">
+      <c r="E38" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="146" t="s">
+      <c r="F38" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="G38" s="146" t="s">
+      <c r="G38" s="143" t="s">
         <v>91</v>
       </c>
       <c r="H38" s="1"/>
@@ -5396,25 +5401,25 @@
     </row>
     <row r="39" spans="1:10" ht="15">
       <c r="A39" s="1"/>
-      <c r="B39" s="133" t="s">
+      <c r="B39" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="149">
+      <c r="C39" s="146">
         <v>14</v>
       </c>
-      <c r="D39" s="134">
+      <c r="D39" s="131">
         <f>(C7*(C12)+D7*D12+E7*E12+F7*F12)</f>
         <v>0.19900000000000001</v>
       </c>
-      <c r="E39" s="135">
+      <c r="E39" s="132">
         <f>C2*D39</f>
         <v>524.6237000000001</v>
       </c>
-      <c r="F39" s="136">
+      <c r="F39" s="133">
         <f t="shared" ref="F39:F46" si="6">4*E39*C39</f>
         <v>29378.927200000006</v>
       </c>
-      <c r="G39" s="136">
+      <c r="G39" s="133">
         <f t="shared" ref="G39:G46" si="7">F39+F39*0.4</f>
         <v>41130.498080000005</v>
       </c>
@@ -5424,25 +5429,25 @@
     </row>
     <row r="40" spans="1:10" ht="15">
       <c r="A40" s="1"/>
-      <c r="B40" s="133" t="s">
+      <c r="B40" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="149">
+      <c r="C40" s="146">
         <v>12</v>
       </c>
-      <c r="D40" s="134">
+      <c r="D40" s="131">
         <f>(C7*(C13)+D7*D13+E7*E13+F7*F13)</f>
         <v>0.11899999999999999</v>
       </c>
-      <c r="E40" s="135">
+      <c r="E40" s="132">
         <f>$C2*D40</f>
         <v>313.71969999999999</v>
       </c>
-      <c r="F40" s="136">
+      <c r="F40" s="133">
         <f t="shared" si="6"/>
         <v>15058.545599999999</v>
       </c>
-      <c r="G40" s="136">
+      <c r="G40" s="133">
         <f t="shared" si="7"/>
         <v>21081.96384</v>
       </c>
@@ -5452,25 +5457,25 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="1"/>
-      <c r="B41" s="133" t="s">
+      <c r="B41" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="149">
+      <c r="C41" s="146">
         <v>12</v>
       </c>
-      <c r="D41" s="134">
+      <c r="D41" s="131">
         <f>(C7*(C14)+D7*D14+E7*E14+F7*F14)</f>
         <v>0.14249999999999999</v>
       </c>
-      <c r="E41" s="135">
+      <c r="E41" s="132">
         <f>$C2*D41</f>
         <v>375.67275000000001</v>
       </c>
-      <c r="F41" s="136">
+      <c r="F41" s="133">
         <f t="shared" si="6"/>
         <v>18032.292000000001</v>
       </c>
-      <c r="G41" s="136">
+      <c r="G41" s="133">
         <f t="shared" si="7"/>
         <v>25245.2088</v>
       </c>
@@ -5480,25 +5485,25 @@
     </row>
     <row r="42" spans="1:10" ht="15">
       <c r="A42" s="1"/>
-      <c r="B42" s="133" t="s">
+      <c r="B42" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="137">
+      <c r="C42" s="134">
         <v>12</v>
       </c>
-      <c r="D42" s="134">
+      <c r="D42" s="131">
         <f>(C7*(C15)+D7*D15+E7*E15+F7*F15)</f>
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="E42" s="135">
+      <c r="E42" s="132">
         <f>$C2*D42</f>
         <v>196.40434999999999</v>
       </c>
-      <c r="F42" s="136">
+      <c r="F42" s="133">
         <f t="shared" si="6"/>
         <v>9427.4087999999992</v>
       </c>
-      <c r="G42" s="136">
+      <c r="G42" s="133">
         <f t="shared" si="7"/>
         <v>13198.372319999999</v>
       </c>
@@ -5508,25 +5513,25 @@
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="1"/>
-      <c r="B43" s="133" t="s">
+      <c r="B43" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="149">
+      <c r="C43" s="146">
         <v>10</v>
       </c>
-      <c r="D43" s="134">
+      <c r="D43" s="131">
         <f>(C7*(C16)+D7*D16+E7*E16+F7*F16)</f>
         <v>0.1135</v>
       </c>
-      <c r="E43" s="135">
+      <c r="E43" s="132">
         <f>$C2*D43</f>
         <v>299.22005000000001</v>
       </c>
-      <c r="F43" s="136">
+      <c r="F43" s="133">
         <f t="shared" si="6"/>
         <v>11968.802</v>
       </c>
-      <c r="G43" s="136">
+      <c r="G43" s="133">
         <f t="shared" si="7"/>
         <v>16756.322800000002</v>
       </c>
@@ -5536,25 +5541,25 @@
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="1"/>
-      <c r="B44" s="133" t="s">
+      <c r="B44" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="137">
+      <c r="C44" s="134">
         <v>10</v>
       </c>
-      <c r="D44" s="134">
+      <c r="D44" s="131">
         <f>(C7*(C17)+D7*D17+E7*E17+F7*F17)</f>
         <v>9.6999999999999989E-2</v>
       </c>
-      <c r="E44" s="135">
+      <c r="E44" s="132">
         <f>$C2*D44</f>
         <v>255.72109999999998</v>
       </c>
-      <c r="F44" s="136">
+      <c r="F44" s="133">
         <f t="shared" si="6"/>
         <v>10228.843999999999</v>
       </c>
-      <c r="G44" s="136">
+      <c r="G44" s="133">
         <f t="shared" si="7"/>
         <v>14320.381599999999</v>
       </c>
@@ -5564,25 +5569,25 @@
     </row>
     <row r="45" spans="1:10" ht="15">
       <c r="A45" s="1"/>
-      <c r="B45" s="133" t="s">
+      <c r="B45" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="149">
+      <c r="C45" s="146">
         <v>12</v>
       </c>
-      <c r="D45" s="134">
+      <c r="D45" s="131">
         <f>(C7*(C18)+D7*D18+E7*E18+F7*F18)</f>
         <v>0.1915</v>
       </c>
-      <c r="E45" s="135">
+      <c r="E45" s="132">
         <f>$C2*D45</f>
         <v>504.85145000000006</v>
       </c>
-      <c r="F45" s="136">
+      <c r="F45" s="133">
         <f t="shared" si="6"/>
         <v>24232.869600000002</v>
       </c>
-      <c r="G45" s="136">
+      <c r="G45" s="133">
         <f t="shared" si="7"/>
         <v>33926.017440000003</v>
       </c>
@@ -5592,25 +5597,25 @@
     </row>
     <row r="46" spans="1:10" ht="15">
       <c r="A46" s="1"/>
-      <c r="B46" s="133" t="s">
+      <c r="B46" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="149">
+      <c r="C46" s="146">
         <v>6</v>
       </c>
-      <c r="D46" s="134">
+      <c r="D46" s="131">
         <f>(C7*(C19)+D7*D19+E7*E19+F7*F19)</f>
         <v>6.3E-2</v>
       </c>
-      <c r="E46" s="135">
+      <c r="E46" s="132">
         <f>$C2*D46</f>
         <v>166.08690000000001</v>
       </c>
-      <c r="F46" s="136">
+      <c r="F46" s="133">
         <f t="shared" si="6"/>
         <v>3986.0856000000003</v>
       </c>
-      <c r="G46" s="136">
+      <c r="G46" s="133">
         <f t="shared" si="7"/>
         <v>5580.5198400000008</v>
       </c>
@@ -5632,10 +5637,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1"/>
-      <c r="B48" s="145" t="s">
+      <c r="B48" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="147" t="s">
+      <c r="C48" s="144" t="s">
         <v>93</v>
       </c>
       <c r="D48" s="32"/>
@@ -5648,10 +5653,10 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1"/>
-      <c r="B49" s="133" t="s">
+      <c r="B49" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="136">
+      <c r="C49" s="133">
         <f>SUM(G39:G44)+G45*2+G46*6</f>
         <v>233067.90136000002</v>
       </c>
@@ -5665,10 +5670,10 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1"/>
-      <c r="B50" s="133" t="s">
+      <c r="B50" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="139">
+      <c r="C50" s="136">
         <f>200*14</f>
         <v>2800</v>
       </c>
@@ -5706,10 +5711,10 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1"/>
-      <c r="B53" s="145" t="s">
+      <c r="B53" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="147" t="s">
+      <c r="C53" s="144" t="s">
         <v>93</v>
       </c>
       <c r="D53" s="32"/>
@@ -5722,10 +5727,10 @@
     </row>
     <row r="54" spans="1:10" ht="15">
       <c r="A54" s="1"/>
-      <c r="B54" s="133" t="s">
+      <c r="B54" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="136">
+      <c r="C54" s="133">
         <f>SUM(C49:C50)</f>
         <v>235867.90136000002</v>
       </c>
@@ -5739,10 +5744,10 @@
     </row>
     <row r="55" spans="1:10" ht="15">
       <c r="A55" s="1"/>
-      <c r="B55" s="133" t="s">
+      <c r="B55" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="136">
+      <c r="C55" s="133">
         <f>(C54*0.15)</f>
         <v>35380.185204000001</v>
       </c>
@@ -5756,10 +5761,10 @@
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="1"/>
-      <c r="B56" s="133" t="s">
+      <c r="B56" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="136">
+      <c r="C56" s="133">
         <f>((C54+C55)*0.4)</f>
         <v>108499.2346256</v>
       </c>
@@ -5773,10 +5778,10 @@
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="1"/>
-      <c r="B57" s="133" t="s">
+      <c r="B57" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="136">
+      <c r="C57" s="133">
         <f>(C56+C54+C55)*0.1</f>
         <v>37974.732118959997</v>
       </c>
@@ -5846,10 +5851,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5859,10 +5864,9 @@
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="7" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:12" ht="12.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5874,9 +5878,8 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="23.25">
+    </row>
+    <row r="2" spans="1:12" ht="23.25">
       <c r="A2" s="37"/>
       <c r="B2" s="38" t="s">
         <v>102</v>
@@ -5890,10 +5893,9 @@
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="23.25">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="23.25">
       <c r="A3" s="1"/>
       <c r="B3" s="39" t="s">
         <v>103</v>
@@ -5910,9 +5912,8 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="12.75">
+    </row>
+    <row r="4" spans="1:12" ht="12.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5925,23 +5926,22 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
-      <c r="B5" s="130" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="131" t="s">
+      <c r="B5" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="128" t="s">
         <v>73</v>
       </c>
       <c r="G5" s="40"/>
@@ -5950,23 +5950,22 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="148">
+      <c r="C6" s="145">
         <v>0.2</v>
       </c>
-      <c r="D6" s="148">
+      <c r="D6" s="145">
         <v>0.2</v>
       </c>
-      <c r="E6" s="148">
+      <c r="E6" s="145">
         <v>0.35</v>
       </c>
-      <c r="F6" s="148">
+      <c r="F6" s="145">
         <v>0.25</v>
       </c>
       <c r="G6" s="40"/>
@@ -5975,23 +5974,22 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="135" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="148">
+      <c r="C7" s="145">
         <v>0.1</v>
       </c>
-      <c r="D7" s="148">
+      <c r="D7" s="145">
         <v>0.25</v>
       </c>
-      <c r="E7" s="148">
+      <c r="E7" s="145">
         <v>0.45</v>
       </c>
-      <c r="F7" s="148">
+      <c r="F7" s="145">
         <v>0.2</v>
       </c>
       <c r="G7" s="40"/>
@@ -6000,9 +5998,8 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="12.75">
+    </row>
+    <row r="8" spans="1:12" ht="12.75">
       <c r="A8" s="1"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -6015,9 +6012,8 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.75">
+    </row>
+    <row r="9" spans="1:12" ht="12.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6030,23 +6026,22 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-      <c r="B10" s="141" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="131" t="s">
+      <c r="B10" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="131" t="s">
+      <c r="D10" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="131" t="s">
+      <c r="E10" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="131" t="s">
+      <c r="F10" s="128" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="1"/>
@@ -6055,26 +6050,25 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="150">
+      <c r="C11" s="147">
         <f t="shared" ref="C11:F11" si="0">(C13/5)/8</f>
         <v>6.5907500000000017</v>
       </c>
-      <c r="D11" s="150">
+      <c r="D11" s="147">
         <f t="shared" si="0"/>
         <v>16.476875</v>
       </c>
-      <c r="E11" s="150">
+      <c r="E11" s="147">
         <f t="shared" si="0"/>
         <v>29.658374999999999</v>
       </c>
-      <c r="F11" s="150">
+      <c r="F11" s="147">
         <f t="shared" si="0"/>
         <v>13.181500000000003</v>
       </c>
@@ -6084,23 +6078,22 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="151" t="s">
+      <c r="D12" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="151" t="s">
+      <c r="E12" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="151" t="s">
+      <c r="F12" s="148" t="s">
         <v>109</v>
       </c>
       <c r="G12" s="1"/>
@@ -6109,26 +6102,25 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="135" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="135">
+      <c r="C13" s="132">
         <f>(C3*C7)</f>
         <v>263.63000000000005</v>
       </c>
-      <c r="D13" s="135">
+      <c r="D13" s="132">
         <f>(D7*C3)</f>
         <v>659.07500000000005</v>
       </c>
-      <c r="E13" s="135">
+      <c r="E13" s="132">
         <f>(E7*C3)</f>
         <v>1186.335</v>
       </c>
-      <c r="F13" s="135">
+      <c r="F13" s="132">
         <f>(F7*C3)</f>
         <v>527.2600000000001</v>
       </c>
@@ -6138,9 +6130,8 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="12.75">
+    </row>
+    <row r="14" spans="1:12" ht="12.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6153,9 +6144,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="12.75">
+    </row>
+    <row r="15" spans="1:12" ht="12.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6168,9 +6158,8 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="12.75">
+    </row>
+    <row r="16" spans="1:12" ht="12.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6183,9 +6172,8 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="41" t="s">
         <v>111</v>
@@ -6203,14 +6191,13 @@
         <v>114</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="29"/>
+        <v>163</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="15">
+    </row>
+    <row r="18" spans="1:12" ht="15">
       <c r="A18" s="1"/>
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
@@ -6218,589 +6205,567 @@
       <c r="E18" s="45"/>
       <c r="F18" s="44"/>
       <c r="G18" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="44" t="s">
-        <v>103</v>
-      </c>
+      <c r="I18" s="45"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1">
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="46"/>
       <c r="C19" s="47"/>
       <c r="D19" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
       <c r="H19" s="52"/>
       <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1">
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="46"/>
       <c r="C20" s="47"/>
       <c r="D20" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
       <c r="H20" s="52"/>
       <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.25" customHeight="1">
+    </row>
+    <row r="21" spans="1:12" ht="17.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="46" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="48" t="s">
         <v>120</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>121</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
       <c r="G21" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="55"/>
+      <c r="I21" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" customHeight="1">
+    </row>
+    <row r="22" spans="1:12" ht="16.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="56"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" ht="12" customHeight="1">
+    </row>
+    <row r="23" spans="1:12" ht="12" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="60" t="s">
-        <v>125</v>
+      <c r="B23" s="57"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="58" t="s">
+        <v>124</v>
       </c>
       <c r="E23" s="49"/>
       <c r="F23" s="50"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
       <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.25" customHeight="1">
+    </row>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="60" t="s">
-        <v>126</v>
+      <c r="B24" s="57"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="58" t="s">
+        <v>125</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
       <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1">
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="69"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.25" customHeight="1">
+    </row>
+    <row r="26" spans="1:12" ht="17.25" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="78"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" ht="12.75">
+    </row>
+    <row r="27" spans="1:12" ht="12.75">
       <c r="A27" s="1"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="71" t="s">
+      <c r="B27" s="76"/>
+      <c r="C27" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="80" t="s">
+      <c r="H27" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="77"/>
-      <c r="J27" s="78"/>
+      <c r="I27" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" ht="12.75">
+    </row>
+    <row r="28" spans="1:12" ht="12.75">
       <c r="A28" s="1"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="78"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" ht="12.75">
+    </row>
+    <row r="29" spans="1:12" ht="12.75">
       <c r="A29" s="1"/>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="90"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" ht="18">
+    </row>
+    <row r="30" spans="1:12" ht="18">
       <c r="A30" s="1"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="70"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" ht="18">
+    </row>
+    <row r="31" spans="1:12" ht="18">
       <c r="A31" s="1"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="71" t="s">
+      <c r="B31" s="59"/>
+      <c r="C31" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="E31" s="70"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="73"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31" s="81" t="s">
+      <c r="H31" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
+      <c r="I31" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" ht="18">
+    </row>
+    <row r="32" spans="1:12" ht="18">
       <c r="A32" s="1"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="70"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" ht="18">
+    </row>
+    <row r="33" spans="1:12" ht="18">
       <c r="A33" s="1"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" ht="18">
+    </row>
+    <row r="34" spans="1:12" ht="18">
       <c r="A34" s="1"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" ht="18">
+    </row>
+    <row r="35" spans="1:12" ht="18">
       <c r="A35" s="1"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="98"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="95"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" ht="18">
+    </row>
+    <row r="36" spans="1:12" ht="18">
       <c r="A36" s="1"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="98"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="95"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" ht="18">
+    </row>
+    <row r="37" spans="1:12" ht="18">
       <c r="A37" s="1"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="103" t="s">
+      <c r="B37" s="92"/>
+      <c r="C37" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="97" t="s">
+      <c r="E37" s="95"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="98"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="104" t="s">
+      <c r="H37" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="H37" s="105" t="s">
-        <v>145</v>
-      </c>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
+      <c r="I37" s="99">
+        <v>0.45</v>
+      </c>
+      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" ht="18">
+    </row>
+    <row r="38" spans="1:12" ht="18">
       <c r="A38" s="1"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="156"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" ht="18">
+    </row>
+    <row r="39" spans="1:12" ht="18">
       <c r="A39" s="1"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" ht="18">
+    </row>
+    <row r="40" spans="1:12" ht="18">
       <c r="A40" s="1"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="98"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="95"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" ht="18">
+    </row>
+    <row r="41" spans="1:12" ht="18">
       <c r="A41" s="1"/>
-      <c r="B41" s="95" t="s">
+      <c r="B41" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="103" t="s">
+      <c r="D41" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="97" t="s">
+      <c r="E41" s="95"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="98"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="104" t="s">
+      <c r="H41" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="H41" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="I41" s="102"/>
-      <c r="J41" s="102"/>
+      <c r="I41" s="99">
+        <v>0.45</v>
+      </c>
+      <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" ht="18">
+    </row>
+    <row r="42" spans="1:12" ht="18">
       <c r="A42" s="1"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" ht="18">
+    </row>
+    <row r="43" spans="1:12" ht="18">
       <c r="A43" s="1"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="98"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="111"/>
-      <c r="J43" s="102"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="95"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" ht="18">
+    </row>
+    <row r="44" spans="1:12" ht="18">
       <c r="A44" s="1"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="103" t="s">
+      <c r="B44" s="92"/>
+      <c r="C44" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="97" t="s">
+      <c r="E44" s="95"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="98"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="H44" s="105" t="s">
+      <c r="H44" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
+      <c r="I44" s="99">
+        <v>0.45</v>
+      </c>
+      <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" ht="18">
+    </row>
+    <row r="45" spans="1:12" ht="18">
       <c r="A45" s="1"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="112" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="108"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="105"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" ht="12.75">
+    </row>
+    <row r="46" spans="1:12" ht="12.75">
       <c r="A46" s="1"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="115" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" s="116"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="118"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="112" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="113"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" ht="12.75">
+    </row>
+    <row r="47" spans="1:12" ht="12.75">
       <c r="A47" s="1"/>
-      <c r="B47" s="120" t="s">
+      <c r="B47" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="121" t="s">
+      <c r="C47" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="115" t="s">
+      <c r="E47" s="113"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="E47" s="116"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="122" t="s">
-        <v>160</v>
-      </c>
-      <c r="H47" s="123" t="s">
+      <c r="H47" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="I47" s="119"/>
-      <c r="J47" s="118"/>
+      <c r="I47" s="119">
+        <v>0.15</v>
+      </c>
+      <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" ht="12.75">
+    </row>
+    <row r="48" spans="1:12" ht="12.75">
       <c r="A48" s="1"/>
-      <c r="B48" s="120"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="115" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="116"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="119"/>
-      <c r="J48" s="118"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="112" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="113"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="119"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="1:13" ht="12.75">
+    </row>
+    <row r="49" spans="1:12" ht="12.75">
       <c r="A49" s="1"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="125" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="126"/>
-      <c r="F49" s="127"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="127"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="128"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="122" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="123"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="126"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:13" ht="12.75">
+    </row>
+    <row r="50" spans="1:12" ht="12.75">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -6813,9 +6778,8 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13" ht="12.75">
+    </row>
+    <row r="51" spans="1:12" ht="12.75">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6828,9 +6792,8 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:13" ht="12.75">
+    </row>
+    <row r="52" spans="1:12" ht="12.75">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6843,9 +6806,8 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="1:13" ht="12.75">
+    </row>
+    <row r="53" spans="1:12" ht="12.75">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -6858,9 +6820,8 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="1:13" ht="12.75">
+    </row>
+    <row r="54" spans="1:12" ht="12.75">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -6873,9 +6834,8 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="1:13" ht="12.75">
+    </row>
+    <row r="55" spans="1:12" ht="12.75">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -6888,13 +6848,13 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>